--- a/residual_sarima.xlsx
+++ b/residual_sarima.xlsx
@@ -8,21 +8,27 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/37a0ce551f5721cc/Documents/Coding TA/Uji Coba TA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="11_0E8170AFD3A0513337DB3011595ED87656CD66A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{31D66460-2F46-48DE-9B1A-429977131167}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="11_0E8170AFD3A0513337DB3011595ED87656CD66A3" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7A0674CE-1C4C-4325-A7AE-9A62A3BDD526}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="15375" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Residual</t>
+  </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Number</t>
   </si>
 </sst>
 </file>
@@ -78,10 +84,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -385,3368 +400,5053 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B420"/>
+  <dimension ref="A1:C420"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A408" workbookViewId="0">
-      <selection activeCell="A420" sqref="A420"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="3"/>
+    <col min="2" max="2" width="14.42578125" style="3" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="3"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="1">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="4">
         <v>1</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="2">
+        <f>DATE(1987,1,1)</f>
+        <v>31778</v>
+      </c>
+      <c r="C2" s="3">
         <v>-289</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="4">
         <v>2</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="2">
+        <f>DATE(1987,2,1)</f>
+        <v>31809</v>
+      </c>
+      <c r="C3" s="3">
         <v>-11.95448858600577</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>3</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="2">
+        <f>DATE(1987,3,1)</f>
+        <v>31837</v>
+      </c>
+      <c r="C4" s="3">
         <v>72.230802578970952</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="4">
         <v>4</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="2">
+        <f>DATE(1987,4,1)</f>
+        <v>31868</v>
+      </c>
+      <c r="C5" s="3">
         <v>75.184301175642076</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="1">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
         <v>5</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="2">
+        <f>DATE(1987,5,1)</f>
+        <v>31898</v>
+      </c>
+      <c r="C6" s="3">
         <v>34.349905543766447</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="1">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="4">
         <v>6</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="2">
+        <f>DATE(1987,6,1)</f>
+        <v>31929</v>
+      </c>
+      <c r="C7" s="3">
         <v>120.1750135400421</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="1">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="4">
         <v>7</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="2">
+        <f>DATE(1987,7,1)</f>
+        <v>31959</v>
+      </c>
+      <c r="C8" s="3">
         <v>123.0340948993226</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="1">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="4">
         <v>8</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="2">
+        <f>DATE(1987,8,1)</f>
+        <v>31990</v>
+      </c>
+      <c r="C9" s="3">
         <v>-1.3487471204744419</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="1">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
         <v>9</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="2">
+        <f>DATE(1987,9,1)</f>
+        <v>32021</v>
+      </c>
+      <c r="C10" s="3">
         <v>-52.669481909722798</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="1">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="4">
         <v>10</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="2">
+        <f>DATE(1987,10,1)</f>
+        <v>32051</v>
+      </c>
+      <c r="C11" s="3">
         <v>-115.4623559062919</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="1">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="4">
         <v>11</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="2">
+        <f>DATE(1987,11,1)</f>
+        <v>32082</v>
+      </c>
+      <c r="C12" s="3">
         <v>-68.153556878682082</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="1">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="4">
         <v>12</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="2">
+        <f>DATE(1987,12,1)</f>
+        <v>32112</v>
+      </c>
+      <c r="C13" s="3">
         <v>-23.01211540240411</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="1">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
         <v>13</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="2">
+        <f>DATE(1988,1,1)</f>
+        <v>32143</v>
+      </c>
+      <c r="C14" s="3">
         <v>34.51253389795103</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="1">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="4">
         <v>14</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="2">
+        <f>DATE(1988,2,1)</f>
+        <v>32174</v>
+      </c>
+      <c r="C15" s="3">
         <v>0.84818630756623747</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="1">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4">
         <v>15</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="2">
+        <f>DATE(1988,3,1)</f>
+        <v>32203</v>
+      </c>
+      <c r="C16" s="3">
         <v>29.96293452018012</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="1">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="4">
         <v>16</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="2">
+        <f>DATE(1988,4,1)</f>
+        <v>32234</v>
+      </c>
+      <c r="C17" s="3">
         <v>-9.9714292953286616</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" s="1">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
         <v>17</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="2">
+        <f>DATE(1988,5,1)</f>
+        <v>32264</v>
+      </c>
+      <c r="C18" s="3">
         <v>-67.981422539421715</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19" s="1">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="4">
         <v>18</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="2">
+        <f>DATE(1988,6,1)</f>
+        <v>32295</v>
+      </c>
+      <c r="C19" s="3">
         <v>-121.50506898152641</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="1">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="4">
         <v>19</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="2">
+        <f>DATE(1988,7,1)</f>
+        <v>32325</v>
+      </c>
+      <c r="C20" s="3">
         <v>-1.600953033249795</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" s="1">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="4">
         <v>20</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="2">
+        <f>DATE(1988,8,1)</f>
+        <v>32356</v>
+      </c>
+      <c r="C21" s="3">
         <v>84.986012147969404</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="1">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
         <v>21</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="2">
+        <f>DATE(1988,9,1)</f>
+        <v>32387</v>
+      </c>
+      <c r="C22" s="3">
         <v>35.341197136941901</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="4">
         <v>22</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="2">
+        <f>DATE(1988,10,1)</f>
+        <v>32417</v>
+      </c>
+      <c r="C23" s="3">
         <v>-22.883210111954579</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="4">
         <v>23</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="2">
+        <f>DATE(1988,11,1)</f>
+        <v>32448</v>
+      </c>
+      <c r="C24" s="3">
         <v>-22.549216478432921</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="1">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="4">
         <v>24</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="2">
+        <f>DATE(1988,12,1)</f>
+        <v>32478</v>
+      </c>
+      <c r="C25" s="3">
         <v>-35.865660635854233</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="1">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
         <v>25</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="2">
+        <f>DATE(1989,1,1)</f>
+        <v>32509</v>
+      </c>
+      <c r="C26" s="3">
         <v>-29.789096845683531</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="1">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="4">
         <v>26</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="2">
+        <f>DATE(1989,2,1)</f>
+        <v>32540</v>
+      </c>
+      <c r="C27" s="3">
         <v>43.382357124840098</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="1">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="4">
         <v>27</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="2">
+        <f>DATE(1989,3,1)</f>
+        <v>32568</v>
+      </c>
+      <c r="C28" s="3">
         <v>0.40136562104154899</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="1">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="4">
         <v>28</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="2">
+        <f>DATE(1989,4,1)</f>
+        <v>32599</v>
+      </c>
+      <c r="C29" s="3">
         <v>-137.94956921209399</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="1">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
         <v>29</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="2">
+        <f>DATE(1989,5,1)</f>
+        <v>32629</v>
+      </c>
+      <c r="C30" s="3">
         <v>245.716399965953</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="1">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="4">
         <v>30</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="2">
+        <f>DATE(1989,6,1)</f>
+        <v>32660</v>
+      </c>
+      <c r="C31" s="3">
         <v>-149.12512788456689</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="1">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="4">
         <v>31</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="2">
+        <f>DATE(1989,7,1)</f>
+        <v>32690</v>
+      </c>
+      <c r="C32" s="3">
         <v>10.32146660899525</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="1">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="4">
         <v>32</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="2">
+        <f>DATE(1989,8,1)</f>
+        <v>32721</v>
+      </c>
+      <c r="C33" s="3">
         <v>40.52206751668632</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="1">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
         <v>33</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="2">
+        <f>DATE(1989,9,1)</f>
+        <v>32752</v>
+      </c>
+      <c r="C34" s="3">
         <v>-26.090944117026371</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="1">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="4">
         <v>34</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="2">
+        <f>DATE(1989,10,1)</f>
+        <v>32782</v>
+      </c>
+      <c r="C35" s="3">
         <v>-128.32121346008631</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="1">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="4">
         <v>35</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="2">
+        <f>DATE(1989,11,1)</f>
+        <v>32813</v>
+      </c>
+      <c r="C36" s="3">
         <v>-108.41577888332149</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="1">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="4">
         <v>36</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="2">
+        <f>DATE(1989,12,1)</f>
+        <v>32843</v>
+      </c>
+      <c r="C37" s="3">
         <v>104.2347017830913</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="1">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
         <v>37</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="2">
+        <f>DATE(1990,1,1)</f>
+        <v>32874</v>
+      </c>
+      <c r="C38" s="3">
         <v>115.7026357683271</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="1">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" s="4">
         <v>38</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="2">
+        <f>DATE(1990,2,1)</f>
+        <v>32905</v>
+      </c>
+      <c r="C39" s="3">
         <v>-5.7931794796332667</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="1">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="4">
         <v>39</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="2">
+        <f>DATE(1990,3,1)</f>
+        <v>32933</v>
+      </c>
+      <c r="C40" s="3">
         <v>114.6628193179403</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="1">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41" s="4">
         <v>40</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="2">
+        <f>DATE(1990,4,1)</f>
+        <v>32964</v>
+      </c>
+      <c r="C41" s="3">
         <v>-46.714123852116501</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="1">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
         <v>41</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="2">
+        <f>DATE(1990,5,1)</f>
+        <v>32994</v>
+      </c>
+      <c r="C42" s="3">
         <v>9.8372587457183727</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="1">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43" s="4">
         <v>42</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="2">
+        <f>DATE(1990,6,1)</f>
+        <v>33025</v>
+      </c>
+      <c r="C43" s="3">
         <v>45.191792941332608</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="1">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44" s="4">
         <v>43</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="2">
+        <f>DATE(1990,7,1)</f>
+        <v>33055</v>
+      </c>
+      <c r="C44" s="3">
         <v>-51.182487232558458</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="1">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45" s="4">
         <v>44</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="2">
+        <f>DATE(1990,8,1)</f>
+        <v>33086</v>
+      </c>
+      <c r="C45" s="3">
         <v>43.652695176468768</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="1">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
         <v>45</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="2">
+        <f>DATE(1990,9,1)</f>
+        <v>33117</v>
+      </c>
+      <c r="C46" s="3">
         <v>52.504205012743171</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="1">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47" s="4">
         <v>46</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="2">
+        <f>DATE(1990,10,1)</f>
+        <v>33147</v>
+      </c>
+      <c r="C47" s="3">
         <v>125.4008228246956</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="1">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48" s="4">
         <v>47</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="2">
+        <f>DATE(1990,11,1)</f>
+        <v>33178</v>
+      </c>
+      <c r="C48" s="3">
         <v>24.317237292085679</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" s="1">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A49" s="4">
         <v>48</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="2">
+        <f>DATE(1990,12,1)</f>
+        <v>33208</v>
+      </c>
+      <c r="C49" s="3">
         <v>-14.177156718461839</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="1">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
         <v>49</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="2">
+        <f>DATE(1991,1,1)</f>
+        <v>33239</v>
+      </c>
+      <c r="C50" s="3">
         <v>40.636098143632807</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="1">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A51" s="4">
         <v>50</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="2">
+        <f>DATE(1991,2,1)</f>
+        <v>33270</v>
+      </c>
+      <c r="C51" s="3">
         <v>87.37148729437979</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" s="1">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A52" s="4">
         <v>51</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="2">
+        <f>DATE(1991,3,1)</f>
+        <v>33298</v>
+      </c>
+      <c r="C52" s="3">
         <v>27.252010692044109</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="1">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A53" s="4">
         <v>52</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="2">
+        <f>DATE(1991,4,1)</f>
+        <v>33329</v>
+      </c>
+      <c r="C53" s="3">
         <v>-48.990944296214387</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="1">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
         <v>53</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="2">
+        <f>DATE(1991,5,1)</f>
+        <v>33359</v>
+      </c>
+      <c r="C54" s="3">
         <v>-83.6788109708977</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="1">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A55" s="4">
         <v>54</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="2">
+        <f>DATE(1991,6,1)</f>
+        <v>33390</v>
+      </c>
+      <c r="C55" s="3">
         <v>-21.246083111175778</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="1">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A56" s="4">
         <v>55</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="2">
+        <f>DATE(1991,7,1)</f>
+        <v>33420</v>
+      </c>
+      <c r="C56" s="3">
         <v>50.156715106495028</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57" s="1">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A57" s="4">
         <v>56</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="2">
+        <f>DATE(1991,8,1)</f>
+        <v>33451</v>
+      </c>
+      <c r="C57" s="3">
         <v>105.7204767010946</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58" s="1">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
         <v>57</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="2">
+        <f>DATE(1991,9,1)</f>
+        <v>33482</v>
+      </c>
+      <c r="C58" s="3">
         <v>64.360863254234744</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="1">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A59" s="4">
         <v>58</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="2">
+        <f>DATE(1991,10,1)</f>
+        <v>33512</v>
+      </c>
+      <c r="C59" s="3">
         <v>47.092818144045218</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60" s="1">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A60" s="4">
         <v>59</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="2">
+        <f>DATE(1991,11,1)</f>
+        <v>33543</v>
+      </c>
+      <c r="C60" s="3">
         <v>67.313508896982796</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61" s="1">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A61" s="4">
         <v>60</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="2">
+        <f>DATE(1991,12,1)</f>
+        <v>33573</v>
+      </c>
+      <c r="C61" s="3">
         <v>-67.279419611946253</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="1">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A62" s="4">
         <v>61</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="2">
+        <f>DATE(1992,1,1)</f>
+        <v>33604</v>
+      </c>
+      <c r="C62" s="3">
         <v>63.453741028462673</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" s="1">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A63" s="4">
         <v>62</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="2">
+        <f>DATE(1992,2,1)</f>
+        <v>33635</v>
+      </c>
+      <c r="C63" s="3">
         <v>-69.274269758413823</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" s="1">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A64" s="4">
         <v>63</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="2">
+        <f>DATE(1992,3,1)</f>
+        <v>33664</v>
+      </c>
+      <c r="C64" s="3">
         <v>-44.962448059983423</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="1">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A65" s="4">
         <v>64</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="2">
+        <f>DATE(1992,4,1)</f>
+        <v>33695</v>
+      </c>
+      <c r="C65" s="3">
         <v>-94.601107773726824</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66" s="1">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A66" s="4">
         <v>65</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="2">
+        <f>DATE(1992,5,1)</f>
+        <v>33725</v>
+      </c>
+      <c r="C66" s="3">
         <v>-97.040583860650486</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67" s="1">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
         <v>66</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="2">
+        <f>DATE(1992,6,1)</f>
+        <v>33756</v>
+      </c>
+      <c r="C67" s="3">
         <v>293.36884287900108</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="1">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
         <v>67</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="2">
+        <f>DATE(1992,7,1)</f>
+        <v>33786</v>
+      </c>
+      <c r="C68" s="3">
         <v>-59.04669884995252</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="1">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A69" s="4">
         <v>68</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="2">
+        <f>DATE(1992,8,1)</f>
+        <v>33817</v>
+      </c>
+      <c r="C69" s="3">
         <v>77.72079695690914</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" s="1">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A70" s="4">
         <v>69</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="2">
+        <f>DATE(1992,9,1)</f>
+        <v>33848</v>
+      </c>
+      <c r="C70" s="3">
         <v>-34.794791446393901</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="1">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A71" s="4">
         <v>70</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="2">
+        <f>DATE(1992,10,1)</f>
+        <v>33878</v>
+      </c>
+      <c r="C71" s="3">
         <v>44.021349241791143</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72" s="1">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A72" s="4">
         <v>71</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="2">
+        <f>DATE(1992,11,1)</f>
+        <v>33909</v>
+      </c>
+      <c r="C72" s="3">
         <v>-9.3946509429460434</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="1">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A73" s="4">
         <v>72</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="2">
+        <f>DATE(1992,12,1)</f>
+        <v>33939</v>
+      </c>
+      <c r="C73" s="3">
         <v>37.326725184481973</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="1">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A74" s="4">
         <v>73</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="2">
+        <f>DATE(1993,1,1)</f>
+        <v>33970</v>
+      </c>
+      <c r="C74" s="3">
         <v>15.868873651997831</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75" s="1">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A75" s="4">
         <v>74</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="2">
+        <f>DATE(1993,2,1)</f>
+        <v>34001</v>
+      </c>
+      <c r="C75" s="3">
         <v>90.760537848789482</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76" s="1">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A76" s="4">
         <v>75</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="2">
+        <f>DATE(1993,3,1)</f>
+        <v>34029</v>
+      </c>
+      <c r="C76" s="3">
         <v>13.961600960918499</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="1">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A77" s="4">
         <v>76</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="2">
+        <f>DATE(1993,4,1)</f>
+        <v>34060</v>
+      </c>
+      <c r="C77" s="3">
         <v>-95.768702724599279</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78" s="1">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A78" s="4">
         <v>77</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="2">
+        <f>DATE(1993,5,1)</f>
+        <v>34090</v>
+      </c>
+      <c r="C78" s="3">
         <v>37.037590361139287</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79" s="1">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A79" s="4">
         <v>78</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="2">
+        <f>DATE(1993,6,1)</f>
+        <v>34121</v>
+      </c>
+      <c r="C79" s="3">
         <v>-91.808097654462642</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="1">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A80" s="4">
         <v>79</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="2">
+        <f>DATE(1993,7,1)</f>
+        <v>34151</v>
+      </c>
+      <c r="C80" s="3">
         <v>-79.509132984236516</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="1">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A81" s="4">
         <v>80</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="2">
+        <f>DATE(1993,8,1)</f>
+        <v>34182</v>
+      </c>
+      <c r="C81" s="3">
         <v>128.60986660984739</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="1">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A82" s="4">
         <v>81</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="2">
+        <f>DATE(1993,9,1)</f>
+        <v>34213</v>
+      </c>
+      <c r="C82" s="3">
         <v>53.035613697182583</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="1">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A83" s="4">
         <v>82</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="2">
+        <f>DATE(1993,10,1)</f>
+        <v>34243</v>
+      </c>
+      <c r="C83" s="3">
         <v>-56.829385872939163</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="1">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A84" s="4">
         <v>83</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="2">
+        <f>DATE(1993,11,1)</f>
+        <v>34274</v>
+      </c>
+      <c r="C84" s="3">
         <v>12.571853894718</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="1">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A85" s="4">
         <v>84</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="2">
+        <f>DATE(1993,12,1)</f>
+        <v>34304</v>
+      </c>
+      <c r="C85" s="3">
         <v>34.711098628083732</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="1">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A86" s="4">
         <v>85</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="2">
+        <f>DATE(1994,1,1)</f>
+        <v>34335</v>
+      </c>
+      <c r="C86" s="3">
         <v>-41.747723157680923</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="1">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A87" s="4">
         <v>86</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="2">
+        <f>DATE(1994,2,1)</f>
+        <v>34366</v>
+      </c>
+      <c r="C87" s="3">
         <v>55.233322516454727</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="1">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A88" s="4">
         <v>87</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="2">
+        <f>DATE(1994,3,1)</f>
+        <v>34394</v>
+      </c>
+      <c r="C88" s="3">
         <v>-4.997663517630258</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="1">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A89" s="4">
         <v>88</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="2">
+        <f>DATE(1994,4,1)</f>
+        <v>34425</v>
+      </c>
+      <c r="C89" s="3">
         <v>11.93538483913062</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="1">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A90" s="4">
         <v>89</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="2">
+        <f>DATE(1994,5,1)</f>
+        <v>34455</v>
+      </c>
+      <c r="C90" s="3">
         <v>-24.089678168662491</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="1">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A91" s="4">
         <v>90</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="2">
+        <f>DATE(1994,6,1)</f>
+        <v>34486</v>
+      </c>
+      <c r="C91" s="3">
         <v>-49.209922526937078</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="1">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A92" s="4">
         <v>91</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="2">
+        <f>DATE(1994,7,1)</f>
+        <v>34516</v>
+      </c>
+      <c r="C92" s="3">
         <v>-54.613537117351257</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="1">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A93" s="4">
         <v>92</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="2">
+        <f>DATE(1994,8,1)</f>
+        <v>34547</v>
+      </c>
+      <c r="C93" s="3">
         <v>18.9904275577241</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="1">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A94" s="4">
         <v>93</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="2">
+        <f>DATE(1994,9,1)</f>
+        <v>34578</v>
+      </c>
+      <c r="C94" s="3">
         <v>99.298803210807705</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="1">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A95" s="4">
         <v>94</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="2">
+        <f>DATE(1994,10,1)</f>
+        <v>34608</v>
+      </c>
+      <c r="C95" s="3">
         <v>17.658850388609551</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="1">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A96" s="4">
         <v>95</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="2">
+        <f>DATE(1994,11,1)</f>
+        <v>34639</v>
+      </c>
+      <c r="C96" s="3">
         <v>-10.969945715038421</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="1">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A97" s="4">
         <v>96</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="2">
+        <f>DATE(1994,12,1)</f>
+        <v>34669</v>
+      </c>
+      <c r="C97" s="3">
         <v>38.49701836085336</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="1">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A98" s="4">
         <v>97</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="2">
+        <f>DATE(1995,1,1)</f>
+        <v>34700</v>
+      </c>
+      <c r="C98" s="3">
         <v>-19.539745647596309</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A99" s="1">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A99" s="4">
         <v>98</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="2">
+        <f>DATE(1995,2,1)</f>
+        <v>34731</v>
+      </c>
+      <c r="C99" s="3">
         <v>-75.738261955215876</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A100" s="1">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A100" s="4">
         <v>99</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="2">
+        <f>DATE(1995,3,1)</f>
+        <v>34759</v>
+      </c>
+      <c r="C100" s="3">
         <v>25.242613731425479</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="1">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A101" s="4">
         <v>100</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="2">
+        <f>DATE(1995,4,1)</f>
+        <v>34790</v>
+      </c>
+      <c r="C101" s="3">
         <v>23.998342854451352</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="1">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A102" s="4">
         <v>101</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="2">
+        <f>DATE(1995,5,1)</f>
+        <v>34820</v>
+      </c>
+      <c r="C102" s="3">
         <v>46.499977315722361</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A103" s="1">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A103" s="4">
         <v>102</v>
       </c>
-      <c r="B103">
+      <c r="B103" s="2">
+        <f>DATE(1995,6,1)</f>
+        <v>34851</v>
+      </c>
+      <c r="C103" s="3">
         <v>28.541165540532081</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="1">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A104" s="4">
         <v>103</v>
       </c>
-      <c r="B104">
+      <c r="B104" s="2">
+        <f>DATE(1995,7,1)</f>
+        <v>34881</v>
+      </c>
+      <c r="C104" s="3">
         <v>-33.063868659052218</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="1">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A105" s="4">
         <v>104</v>
       </c>
-      <c r="B105">
+      <c r="B105" s="2">
+        <f>DATE(1995,8,1)</f>
+        <v>34912</v>
+      </c>
+      <c r="C105" s="3">
         <v>8.5269557915376879</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="1">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A106" s="4">
         <v>105</v>
       </c>
-      <c r="B106">
+      <c r="B106" s="2">
+        <f>DATE(1995,9,1)</f>
+        <v>34943</v>
+      </c>
+      <c r="C106" s="3">
         <v>-49.028521199006917</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="1">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A107" s="4">
         <v>106</v>
       </c>
-      <c r="B107">
+      <c r="B107" s="2">
+        <f>DATE(1995,10,1)</f>
+        <v>34973</v>
+      </c>
+      <c r="C107" s="3">
         <v>-43.844656062576057</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="1">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A108" s="4">
         <v>107</v>
       </c>
-      <c r="B108">
+      <c r="B108" s="2">
+        <f>DATE(1995,11,1)</f>
+        <v>35004</v>
+      </c>
+      <c r="C108" s="3">
         <v>2.302169191571835</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="1">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A109" s="4">
         <v>108</v>
       </c>
-      <c r="B109">
+      <c r="B109" s="2">
+        <f>DATE(1995,12,1)</f>
+        <v>35034</v>
+      </c>
+      <c r="C109" s="3">
         <v>4.7729422657224632</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="1">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A110" s="4">
         <v>109</v>
       </c>
-      <c r="B110">
+      <c r="B110" s="2">
+        <f>DATE(1996,1,1)</f>
+        <v>35065</v>
+      </c>
+      <c r="C110" s="3">
         <v>41.073999214549808</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A111" s="1">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A111" s="4">
         <v>110</v>
       </c>
-      <c r="B111">
+      <c r="B111" s="2">
+        <f>DATE(1996,2,1)</f>
+        <v>35096</v>
+      </c>
+      <c r="C111" s="3">
         <v>-27.379945831527611</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A112" s="1">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A112" s="4">
         <v>111</v>
       </c>
-      <c r="B112">
+      <c r="B112" s="2">
+        <f>DATE(1996,3,1)</f>
+        <v>35125</v>
+      </c>
+      <c r="C112" s="3">
         <v>-2.028499398808151</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="1">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A113" s="4">
         <v>112</v>
       </c>
-      <c r="B113">
+      <c r="B113" s="2">
+        <f>DATE(1996,4,1)</f>
+        <v>35156</v>
+      </c>
+      <c r="C113" s="3">
         <v>40.649388088936973</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A114" s="1">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A114" s="4">
         <v>113</v>
       </c>
-      <c r="B114">
+      <c r="B114" s="2">
+        <f>DATE(1996,5,1)</f>
+        <v>35186</v>
+      </c>
+      <c r="C114" s="3">
         <v>-20.75384629759969</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A115" s="1">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A115" s="4">
         <v>114</v>
       </c>
-      <c r="B115">
+      <c r="B115" s="2">
+        <f>DATE(1996,6,1)</f>
+        <v>35217</v>
+      </c>
+      <c r="C115" s="3">
         <v>-26.367949784784571</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="1">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A116" s="4">
         <v>115</v>
       </c>
-      <c r="B116">
+      <c r="B116" s="2">
+        <f>DATE(1996,7,1)</f>
+        <v>35247</v>
+      </c>
+      <c r="C116" s="3">
         <v>21.02270680444337</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="1">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A117" s="4">
         <v>116</v>
       </c>
-      <c r="B117">
+      <c r="B117" s="2">
+        <f>DATE(1996,8,1)</f>
+        <v>35278</v>
+      </c>
+      <c r="C117" s="3">
         <v>-22.030946304216801</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="1">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A118" s="4">
         <v>117</v>
       </c>
-      <c r="B118">
+      <c r="B118" s="2">
+        <f>DATE(1996,9,1)</f>
+        <v>35309</v>
+      </c>
+      <c r="C118" s="3">
         <v>-7.6139720377519211</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="1">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A119" s="4">
         <v>118</v>
       </c>
-      <c r="B119">
+      <c r="B119" s="2">
+        <f>DATE(1996,10,1)</f>
+        <v>35339</v>
+      </c>
+      <c r="C119" s="3">
         <v>24.361325596761048</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A120" s="1">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A120" s="4">
         <v>119</v>
       </c>
-      <c r="B120">
+      <c r="B120" s="2">
+        <f>DATE(1996,11,1)</f>
+        <v>35370</v>
+      </c>
+      <c r="C120" s="3">
         <v>183.03137753860821</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="1">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A121" s="4">
         <v>120</v>
       </c>
-      <c r="B121">
+      <c r="B121" s="2">
+        <f>DATE(1996,12,1)</f>
+        <v>35400</v>
+      </c>
+      <c r="C121" s="3">
         <v>-12.383094011905429</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="1">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A122" s="4">
         <v>121</v>
       </c>
-      <c r="B122">
+      <c r="B122" s="2">
+        <f>DATE(1997,1,1)</f>
+        <v>35431</v>
+      </c>
+      <c r="C122" s="3">
         <v>-83.133152514038784</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A123" s="1">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A123" s="4">
         <v>122</v>
       </c>
-      <c r="B123">
+      <c r="B123" s="2">
+        <f>DATE(1997,2,1)</f>
+        <v>35462</v>
+      </c>
+      <c r="C123" s="3">
         <v>-35.914885293844463</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A124" s="1">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A124" s="4">
         <v>123</v>
       </c>
-      <c r="B124">
+      <c r="B124" s="2">
+        <f>DATE(1997,3,1)</f>
+        <v>35490</v>
+      </c>
+      <c r="C124" s="3">
         <v>-9.932213281552265</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="1">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A125" s="4">
         <v>124</v>
       </c>
-      <c r="B125">
+      <c r="B125" s="2">
+        <f>DATE(1997,4,1)</f>
+        <v>35521</v>
+      </c>
+      <c r="C125" s="3">
         <v>49.166798571896997</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="1">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A126" s="4">
         <v>125</v>
       </c>
-      <c r="B126">
+      <c r="B126" s="2">
+        <f>DATE(1997,5,1)</f>
+        <v>35551</v>
+      </c>
+      <c r="C126" s="3">
         <v>-19.14706203770811</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="1">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A127" s="4">
         <v>126</v>
       </c>
-      <c r="B127">
+      <c r="B127" s="2">
+        <f>DATE(1997,6,1)</f>
+        <v>35582</v>
+      </c>
+      <c r="C127" s="3">
         <v>41.304331712015028</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="1">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A128" s="4">
         <v>127</v>
       </c>
-      <c r="B128">
+      <c r="B128" s="2">
+        <f>DATE(1997,7,1)</f>
+        <v>35612</v>
+      </c>
+      <c r="C128" s="3">
         <v>-20.418406102888301</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A129" s="1">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A129" s="4">
         <v>128</v>
       </c>
-      <c r="B129">
+      <c r="B129" s="2">
+        <f>DATE(1997,8,1)</f>
+        <v>35643</v>
+      </c>
+      <c r="C129" s="3">
         <v>-7.8341835627829823</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="1">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A130" s="4">
         <v>129</v>
       </c>
-      <c r="B130">
+      <c r="B130" s="2">
+        <f>DATE(1997,9,1)</f>
+        <v>35674</v>
+      </c>
+      <c r="C130" s="3">
         <v>6.7167009611310684</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="1">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A131" s="4">
         <v>130</v>
       </c>
-      <c r="B131">
+      <c r="B131" s="2">
+        <f>DATE(1997,10,1)</f>
+        <v>35704</v>
+      </c>
+      <c r="C131" s="3">
         <v>-27.463474171131669</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="1">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A132" s="4">
         <v>131</v>
       </c>
-      <c r="B132">
+      <c r="B132" s="2">
+        <f>DATE(1997,11,1)</f>
+        <v>35735</v>
+      </c>
+      <c r="C132" s="3">
         <v>-69.607666702096381</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A133" s="1">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A133" s="4">
         <v>132</v>
       </c>
-      <c r="B133">
+      <c r="B133" s="2">
+        <f>DATE(1997,12,1)</f>
+        <v>35765</v>
+      </c>
+      <c r="C133" s="3">
         <v>4.2815865092712224</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="1">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A134" s="4">
         <v>133</v>
       </c>
-      <c r="B134">
+      <c r="B134" s="2">
+        <f>DATE(1998,1,1)</f>
+        <v>35796</v>
+      </c>
+      <c r="C134" s="3">
         <v>-46.491998765416547</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A135" s="1">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A135" s="4">
         <v>134</v>
       </c>
-      <c r="B135">
+      <c r="B135" s="2">
+        <f>DATE(1998,2,1)</f>
+        <v>35827</v>
+      </c>
+      <c r="C135" s="3">
         <v>25.996855809106481</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A136" s="1">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A136" s="4">
         <v>135</v>
       </c>
-      <c r="B136">
+      <c r="B136" s="2">
+        <f>DATE(1998,3,1)</f>
+        <v>35855</v>
+      </c>
+      <c r="C136" s="3">
         <v>3.7476973543443819</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="1">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A137" s="4">
         <v>136</v>
       </c>
-      <c r="B137">
+      <c r="B137" s="2">
+        <f>DATE(1998,4,1)</f>
+        <v>35886</v>
+      </c>
+      <c r="C137" s="3">
         <v>-5.6105925397732221</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A138" s="1">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A138" s="4">
         <v>137</v>
       </c>
-      <c r="B138">
+      <c r="B138" s="2">
+        <f>DATE(1998,5,1)</f>
+        <v>35916</v>
+      </c>
+      <c r="C138" s="3">
         <v>34.394237148705599</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A139" s="1">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A139" s="4">
         <v>138</v>
       </c>
-      <c r="B139">
+      <c r="B139" s="2">
+        <f>DATE(1998,6,1)</f>
+        <v>35947</v>
+      </c>
+      <c r="C139" s="3">
         <v>-25.179205524788699</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="1">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A140" s="4">
         <v>139</v>
       </c>
-      <c r="B140">
+      <c r="B140" s="2">
+        <f>DATE(1998,7,1)</f>
+        <v>35977</v>
+      </c>
+      <c r="C140" s="3">
         <v>-20.52419201094602</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A141" s="1">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A141" s="4">
         <v>140</v>
       </c>
-      <c r="B141">
+      <c r="B141" s="2">
+        <f>DATE(1998,8,1)</f>
+        <v>36008</v>
+      </c>
+      <c r="C141" s="3">
         <v>16.968770033393071</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A142" s="1">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A142" s="4">
         <v>141</v>
       </c>
-      <c r="B142">
+      <c r="B142" s="2">
+        <f>DATE(1998,9,1)</f>
+        <v>36039</v>
+      </c>
+      <c r="C142" s="3">
         <v>38.522603256508717</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="1">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A143" s="4">
         <v>142</v>
       </c>
-      <c r="B143">
+      <c r="B143" s="2">
+        <f>DATE(1998,10,1)</f>
+        <v>36069</v>
+      </c>
+      <c r="C143" s="3">
         <v>137.13590565898119</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="1">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A144" s="4">
         <v>143</v>
       </c>
-      <c r="B144">
+      <c r="B144" s="2">
+        <f>DATE(1998,11,1)</f>
+        <v>36100</v>
+      </c>
+      <c r="C144" s="3">
         <v>131.97852926890781</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="1">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A145" s="4">
         <v>144</v>
       </c>
-      <c r="B145">
+      <c r="B145" s="2">
+        <f>DATE(1998,12,1)</f>
+        <v>36130</v>
+      </c>
+      <c r="C145" s="3">
         <v>54.275168489892337</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="1">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A146" s="4">
         <v>145</v>
       </c>
-      <c r="B146">
+      <c r="B146" s="2">
+        <f>DATE(1999,1,1)</f>
+        <v>36161</v>
+      </c>
+      <c r="C146" s="3">
         <v>-26.878972169387168</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A147" s="1">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A147" s="4">
         <v>146</v>
       </c>
-      <c r="B147">
+      <c r="B147" s="2">
+        <f>DATE(1999,2,1)</f>
+        <v>36192</v>
+      </c>
+      <c r="C147" s="3">
         <v>56.557591892149667</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A148" s="1">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A148" s="4">
         <v>147</v>
       </c>
-      <c r="B148">
+      <c r="B148" s="2">
+        <f>DATE(1999,3,1)</f>
+        <v>36220</v>
+      </c>
+      <c r="C148" s="3">
         <v>-124.2298428484919</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="1">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A149" s="4">
         <v>148</v>
       </c>
-      <c r="B149">
+      <c r="B149" s="2">
+        <f>DATE(1999,4,1)</f>
+        <v>36251</v>
+      </c>
+      <c r="C149" s="3">
         <v>79.119047846435848</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A150" s="1">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A150" s="4">
         <v>149</v>
       </c>
-      <c r="B150">
+      <c r="B150" s="2">
+        <f>DATE(1999,5,1)</f>
+        <v>36281</v>
+      </c>
+      <c r="C150" s="3">
         <v>-83.343398904772016</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A151" s="1">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A151" s="4">
         <v>150</v>
       </c>
-      <c r="B151">
+      <c r="B151" s="2">
+        <f>DATE(1999,6,1)</f>
+        <v>36312</v>
+      </c>
+      <c r="C151" s="3">
         <v>23.315480179434669</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="1">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A152" s="4">
         <v>151</v>
       </c>
-      <c r="B152">
+      <c r="B152" s="2">
+        <f>DATE(1999,7,1)</f>
+        <v>36342</v>
+      </c>
+      <c r="C152" s="3">
         <v>-34.019102571888787</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A153" s="1">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A153" s="4">
         <v>152</v>
       </c>
-      <c r="B153">
+      <c r="B153" s="2">
+        <f>DATE(1999,8,1)</f>
+        <v>36373</v>
+      </c>
+      <c r="C153" s="3">
         <v>59.929677404283318</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A154" s="1">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A154" s="4">
         <v>153</v>
       </c>
-      <c r="B154">
+      <c r="B154" s="2">
+        <f>DATE(1999,9,1)</f>
+        <v>36404</v>
+      </c>
+      <c r="C154" s="3">
         <v>16.094032658450161</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="1">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A155" s="4">
         <v>154</v>
       </c>
-      <c r="B155">
+      <c r="B155" s="2">
+        <f>DATE(1999,10,1)</f>
+        <v>36434</v>
+      </c>
+      <c r="C155" s="3">
         <v>23.51901792341695</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A156" s="1">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A156" s="4">
         <v>155</v>
       </c>
-      <c r="B156">
+      <c r="B156" s="2">
+        <f>DATE(1999,11,1)</f>
+        <v>36465</v>
+      </c>
+      <c r="C156" s="3">
         <v>-46.952399247637302</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A157" s="1">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A157" s="4">
         <v>156</v>
       </c>
-      <c r="B157">
+      <c r="B157" s="2">
+        <f>DATE(1999,12,1)</f>
+        <v>36495</v>
+      </c>
+      <c r="C157" s="3">
         <v>-10.59312441188017</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="1">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A158" s="4">
         <v>157</v>
       </c>
-      <c r="B158">
+      <c r="B158" s="2">
+        <f>DATE(2000,1,1)</f>
+        <v>36526</v>
+      </c>
+      <c r="C158" s="3">
         <v>52.1128236821813</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A159" s="1">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A159" s="4">
         <v>158</v>
       </c>
-      <c r="B159">
+      <c r="B159" s="2">
+        <f>DATE(2000,2,1)</f>
+        <v>36557</v>
+      </c>
+      <c r="C159" s="3">
         <v>49.490843872229497</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A160" s="1">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A160" s="4">
         <v>159</v>
       </c>
-      <c r="B160">
+      <c r="B160" s="2">
+        <f>DATE(2000,3,1)</f>
+        <v>36586</v>
+      </c>
+      <c r="C160" s="3">
         <v>75.083078358987862</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="1">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A161" s="4">
         <v>160</v>
       </c>
-      <c r="B161">
+      <c r="B161" s="2">
+        <f>DATE(2000,4,1)</f>
+        <v>36617</v>
+      </c>
+      <c r="C161" s="3">
         <v>-87.059630582700976</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A162" s="1">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A162" s="4">
         <v>161</v>
       </c>
-      <c r="B162">
+      <c r="B162" s="2">
+        <f>DATE(2000,5,1)</f>
+        <v>36647</v>
+      </c>
+      <c r="C162" s="3">
         <v>-101.6581552268687</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A163" s="1">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A163" s="4">
         <v>162</v>
       </c>
-      <c r="B163">
+      <c r="B163" s="2">
+        <f>DATE(2000,6,1)</f>
+        <v>36678</v>
+      </c>
+      <c r="C163" s="3">
         <v>20.49756305058855</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="1">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A164" s="4">
         <v>163</v>
       </c>
-      <c r="B164">
+      <c r="B164" s="2">
+        <f>DATE(2000,7,1)</f>
+        <v>36708</v>
+      </c>
+      <c r="C164" s="3">
         <v>7.7724982750488607</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A165" s="1">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A165" s="4">
         <v>164</v>
       </c>
-      <c r="B165">
+      <c r="B165" s="2">
+        <f>DATE(2000,8,1)</f>
+        <v>36739</v>
+      </c>
+      <c r="C165" s="3">
         <v>5.2480768835075082</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A166" s="1">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A166" s="4">
         <v>165</v>
       </c>
-      <c r="B166">
+      <c r="B166" s="2">
+        <f>DATE(2000,9,1)</f>
+        <v>36770</v>
+      </c>
+      <c r="C166" s="3">
         <v>13.16490942917488</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="1">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A167" s="4">
         <v>166</v>
       </c>
-      <c r="B167">
+      <c r="B167" s="2">
+        <f>DATE(2000,10,1)</f>
+        <v>36800</v>
+      </c>
+      <c r="C167" s="3">
         <v>-2.9786676116254398</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A168" s="1">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A168" s="4">
         <v>167</v>
       </c>
-      <c r="B168">
+      <c r="B168" s="2">
+        <f>DATE(2000,11,1)</f>
+        <v>36831</v>
+      </c>
+      <c r="C168" s="3">
         <v>-1.514620453779969</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A169" s="1">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A169" s="4">
         <v>168</v>
       </c>
-      <c r="B169">
+      <c r="B169" s="2">
+        <f>DATE(2000,12,1)</f>
+        <v>36861</v>
+      </c>
+      <c r="C169" s="3">
         <v>40.998234968775137</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="1">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A170" s="4">
         <v>169</v>
       </c>
-      <c r="B170">
+      <c r="B170" s="2">
+        <f>DATE(2001,1,1)</f>
+        <v>36892</v>
+      </c>
+      <c r="C170" s="3">
         <v>-56.630612849340679</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A171" s="1">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A171" s="4">
         <v>170</v>
       </c>
-      <c r="B171">
+      <c r="B171" s="2">
+        <f>DATE(2001,2,1)</f>
+        <v>36923</v>
+      </c>
+      <c r="C171" s="3">
         <v>-40.37685254758901</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A172" s="1">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A172" s="4">
         <v>171</v>
       </c>
-      <c r="B172">
+      <c r="B172" s="2">
+        <f>DATE(2001,3,1)</f>
+        <v>36951</v>
+      </c>
+      <c r="C172" s="3">
         <v>-29.099075159913241</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="1">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A173" s="4">
         <v>172</v>
       </c>
-      <c r="B173">
+      <c r="B173" s="2">
+        <f>DATE(2001,4,1)</f>
+        <v>36982</v>
+      </c>
+      <c r="C173" s="3">
         <v>-31.327453284099249</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A174" s="1">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A174" s="4">
         <v>173</v>
       </c>
-      <c r="B174">
+      <c r="B174" s="2">
+        <f>DATE(2001,5,1)</f>
+        <v>37012</v>
+      </c>
+      <c r="C174" s="3">
         <v>-23.782994599207768</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A175" s="1">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A175" s="4">
         <v>174</v>
       </c>
-      <c r="B175">
+      <c r="B175" s="2">
+        <f>DATE(2001,6,1)</f>
+        <v>37043</v>
+      </c>
+      <c r="C175" s="3">
         <v>-88.931783732842177</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="1">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A176" s="4">
         <v>175</v>
       </c>
-      <c r="B176">
+      <c r="B176" s="2">
+        <f>DATE(2001,7,1)</f>
+        <v>37073</v>
+      </c>
+      <c r="C176" s="3">
         <v>-38.027022096281478</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A177" s="1">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A177" s="4">
         <v>176</v>
       </c>
-      <c r="B177">
+      <c r="B177" s="2">
+        <f>DATE(2001,8,1)</f>
+        <v>37104</v>
+      </c>
+      <c r="C177" s="3">
         <v>63.062379434387253</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A178" s="1">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A178" s="4">
         <v>177</v>
       </c>
-      <c r="B178">
+      <c r="B178" s="2">
+        <f>DATE(2001,9,1)</f>
+        <v>37135</v>
+      </c>
+      <c r="C178" s="3">
         <v>-9.2660433510120157</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="1">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A179" s="4">
         <v>178</v>
       </c>
-      <c r="B179">
+      <c r="B179" s="2">
+        <f>DATE(2001,10,1)</f>
+        <v>37165</v>
+      </c>
+      <c r="C179" s="3">
         <v>-8.1130518944974028E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A180" s="1">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A180" s="4">
         <v>179</v>
       </c>
-      <c r="B180">
+      <c r="B180" s="2">
+        <f>DATE(2001,11,1)</f>
+        <v>37196</v>
+      </c>
+      <c r="C180" s="3">
         <v>5.1414012757285832</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A181" s="1">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A181" s="4">
         <v>180</v>
       </c>
-      <c r="B181">
+      <c r="B181" s="2">
+        <f>DATE(2001,12,1)</f>
+        <v>37226</v>
+      </c>
+      <c r="C181" s="3">
         <v>43.455407976379689</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="1">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A182" s="4">
         <v>181</v>
       </c>
-      <c r="B182">
+      <c r="B182" s="2">
+        <f>DATE(2002,1,1)</f>
+        <v>37257</v>
+      </c>
+      <c r="C182" s="3">
         <v>-79.314611750342891</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A183" s="1">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A183" s="4">
         <v>182</v>
       </c>
-      <c r="B183">
+      <c r="B183" s="2">
+        <f>DATE(2002,2,1)</f>
+        <v>37288</v>
+      </c>
+      <c r="C183" s="3">
         <v>27.008874044934831</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A184" s="1">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A184" s="4">
         <v>183</v>
       </c>
-      <c r="B184">
+      <c r="B184" s="2">
+        <f>DATE(2002,3,1)</f>
+        <v>37316</v>
+      </c>
+      <c r="C184" s="3">
         <v>-0.19464302668595221</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="1">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A185" s="4">
         <v>184</v>
       </c>
-      <c r="B185">
+      <c r="B185" s="2">
+        <f>DATE(2002,4,1)</f>
+        <v>37347</v>
+      </c>
+      <c r="C185" s="3">
         <v>-50.010466728957539</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A186" s="1">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A186" s="4">
         <v>185</v>
       </c>
-      <c r="B186">
+      <c r="B186" s="2">
+        <f>DATE(2002,5,1)</f>
+        <v>37377</v>
+      </c>
+      <c r="C186" s="3">
         <v>39.411386086924779</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A187" s="1">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A187" s="4">
         <v>186</v>
       </c>
-      <c r="B187">
+      <c r="B187" s="2">
+        <f>DATE(2002,6,1)</f>
+        <v>37408</v>
+      </c>
+      <c r="C187" s="3">
         <v>-60.479200522945007</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="1">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A188" s="4">
         <v>187</v>
       </c>
-      <c r="B188">
+      <c r="B188" s="2">
+        <f>DATE(2002,7,1)</f>
+        <v>37438</v>
+      </c>
+      <c r="C188" s="3">
         <v>79.488581771563275</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="1">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A189" s="4">
         <v>188</v>
       </c>
-      <c r="B189">
+      <c r="B189" s="2">
+        <f>DATE(2002,8,1)</f>
+        <v>37469</v>
+      </c>
+      <c r="C189" s="3">
         <v>10.097711093502451</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A190" s="1">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A190" s="4">
         <v>189</v>
       </c>
-      <c r="B190">
+      <c r="B190" s="2">
+        <f>DATE(2002,9,1)</f>
+        <v>37500</v>
+      </c>
+      <c r="C190" s="3">
         <v>44.798697716819447</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="1">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A191" s="4">
         <v>190</v>
       </c>
-      <c r="B191">
+      <c r="B191" s="2">
+        <f>DATE(2002,10,1)</f>
+        <v>37530</v>
+      </c>
+      <c r="C191" s="3">
         <v>-57.16314726497427</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="1">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A192" s="4">
         <v>191</v>
       </c>
-      <c r="B192">
+      <c r="B192" s="2">
+        <f>DATE(2002,11,1)</f>
+        <v>37561</v>
+      </c>
+      <c r="C192" s="3">
         <v>-16.302313982473379</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="1">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A193" s="4">
         <v>192</v>
       </c>
-      <c r="B193">
+      <c r="B193" s="2">
+        <f>DATE(2002,12,1)</f>
+        <v>37591</v>
+      </c>
+      <c r="C193" s="3">
         <v>-10.11347419421196</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="1">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A194" s="4">
         <v>193</v>
       </c>
-      <c r="B194">
+      <c r="B194" s="2">
+        <f>DATE(2003,1,1)</f>
+        <v>37622</v>
+      </c>
+      <c r="C194" s="3">
         <v>72.812610876473315</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="1">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A195" s="4">
         <v>194</v>
       </c>
-      <c r="B195">
+      <c r="B195" s="2">
+        <f>DATE(2003,2,1)</f>
+        <v>37653</v>
+      </c>
+      <c r="C195" s="3">
         <v>20.772510978605681</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="1">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A196" s="4">
         <v>195</v>
       </c>
-      <c r="B196">
+      <c r="B196" s="2">
+        <f>DATE(2003,3,1)</f>
+        <v>37681</v>
+      </c>
+      <c r="C196" s="3">
         <v>-30.77351983774528</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="1">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A197" s="4">
         <v>196</v>
       </c>
-      <c r="B197">
+      <c r="B197" s="2">
+        <f>DATE(2003,4,1)</f>
+        <v>37712</v>
+      </c>
+      <c r="C197" s="3">
         <v>3.1709111853668328</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="1">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A198" s="4">
         <v>197</v>
       </c>
-      <c r="B198">
+      <c r="B198" s="2">
+        <f>DATE(2003,5,1)</f>
+        <v>37742</v>
+      </c>
+      <c r="C198" s="3">
         <v>-2.7156432473747709</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A199" s="1">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A199" s="4">
         <v>198</v>
       </c>
-      <c r="B199">
+      <c r="B199" s="2">
+        <f>DATE(2003,6,1)</f>
+        <v>37773</v>
+      </c>
+      <c r="C199" s="3">
         <v>-16.083964715436139</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="1">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A200" s="4">
         <v>199</v>
       </c>
-      <c r="B200">
+      <c r="B200" s="2">
+        <f>DATE(2003,7,1)</f>
+        <v>37803</v>
+      </c>
+      <c r="C200" s="3">
         <v>-16.529259610382439</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="1">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A201" s="4">
         <v>200</v>
       </c>
-      <c r="B201">
+      <c r="B201" s="2">
+        <f>DATE(2003,8,1)</f>
+        <v>37834</v>
+      </c>
+      <c r="C201" s="3">
         <v>-14.98199858880713</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="1">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A202" s="4">
         <v>201</v>
       </c>
-      <c r="B202">
+      <c r="B202" s="2">
+        <f>DATE(2003,9,1)</f>
+        <v>37865</v>
+      </c>
+      <c r="C202" s="3">
         <v>16.249760228813219</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="1">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A203" s="4">
         <v>202</v>
       </c>
-      <c r="B203">
+      <c r="B203" s="2">
+        <f>DATE(2003,10,1)</f>
+        <v>37895</v>
+      </c>
+      <c r="C203" s="3">
         <v>-19.85220239834905</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="1">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A204" s="4">
         <v>203</v>
       </c>
-      <c r="B204">
+      <c r="B204" s="2">
+        <f>DATE(2003,11,1)</f>
+        <v>37926</v>
+      </c>
+      <c r="C204" s="3">
         <v>116.5845133781812</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A205" s="1">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A205" s="4">
         <v>204</v>
       </c>
-      <c r="B205">
+      <c r="B205" s="2">
+        <f>DATE(2003,12,1)</f>
+        <v>37956</v>
+      </c>
+      <c r="C205" s="3">
         <v>68.96581708490254</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="1">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A206" s="4">
         <v>205</v>
       </c>
-      <c r="B206">
+      <c r="B206" s="2">
+        <f>DATE(2004,1,1)</f>
+        <v>37987</v>
+      </c>
+      <c r="C206" s="3">
         <v>-28.743305316863601</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="1">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A207" s="4">
         <v>206</v>
       </c>
-      <c r="B207">
+      <c r="B207" s="2">
+        <f>DATE(2004,2,1)</f>
+        <v>38018</v>
+      </c>
+      <c r="C207" s="3">
         <v>-54.471688814634597</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="1">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A208" s="4">
         <v>207</v>
       </c>
-      <c r="B208">
+      <c r="B208" s="2">
+        <f>DATE(2004,3,1)</f>
+        <v>38047</v>
+      </c>
+      <c r="C208" s="3">
         <v>10.86979483886296</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="1">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" s="4">
         <v>208</v>
       </c>
-      <c r="B209">
+      <c r="B209" s="2">
+        <f>DATE(2004,4,1)</f>
+        <v>38078</v>
+      </c>
+      <c r="C209" s="3">
         <v>-15.08385264420977</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A210" s="1">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" s="4">
         <v>209</v>
       </c>
-      <c r="B210">
+      <c r="B210" s="2">
+        <f>DATE(2004,5,1)</f>
+        <v>38108</v>
+      </c>
+      <c r="C210" s="3">
         <v>-0.83482621651786815</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A211" s="1">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" s="4">
         <v>210</v>
       </c>
-      <c r="B211">
+      <c r="B211" s="2">
+        <f>DATE(2004,6,1)</f>
+        <v>38139</v>
+      </c>
+      <c r="C211" s="3">
         <v>-11.565733004478281</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="1">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" s="4">
         <v>211</v>
       </c>
-      <c r="B212">
+      <c r="B212" s="2">
+        <f>DATE(2004,7,1)</f>
+        <v>38169</v>
+      </c>
+      <c r="C212" s="3">
         <v>5.1013270765743783</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A213" s="1">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" s="4">
         <v>212</v>
       </c>
-      <c r="B213">
+      <c r="B213" s="2">
+        <f>DATE(2004,8,1)</f>
+        <v>38200</v>
+      </c>
+      <c r="C213" s="3">
         <v>-15.24842286935456</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A214" s="1">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" s="4">
         <v>213</v>
       </c>
-      <c r="B214">
+      <c r="B214" s="2">
+        <f>DATE(2004,9,1)</f>
+        <v>38231</v>
+      </c>
+      <c r="C214" s="3">
         <v>6.3963157639452666</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="1">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" s="4">
         <v>214</v>
       </c>
-      <c r="B215">
+      <c r="B215" s="2">
+        <f>DATE(2004,10,1)</f>
+        <v>38261</v>
+      </c>
+      <c r="C215" s="3">
         <v>22.15043776333636</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A216" s="1">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" s="4">
         <v>215</v>
       </c>
-      <c r="B216">
+      <c r="B216" s="2">
+        <f>DATE(2004,11,1)</f>
+        <v>38292</v>
+      </c>
+      <c r="C216" s="3">
         <v>-96.905308231541241</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A217" s="1">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" s="4">
         <v>216</v>
       </c>
-      <c r="B217">
+      <c r="B217" s="2">
+        <f>DATE(2004,12,1)</f>
+        <v>38322</v>
+      </c>
+      <c r="C217" s="3">
         <v>-10.825441679613389</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="1">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" s="4">
         <v>217</v>
       </c>
-      <c r="B218">
+      <c r="B218" s="2">
+        <f>DATE(2005,1,1)</f>
+        <v>38353</v>
+      </c>
+      <c r="C218" s="3">
         <v>12.237598828693651</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A219" s="1">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" s="4">
         <v>218</v>
       </c>
-      <c r="B219">
+      <c r="B219" s="2">
+        <f>DATE(2005,2,1)</f>
+        <v>38384</v>
+      </c>
+      <c r="C219" s="3">
         <v>60.775649654126653</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A220" s="1">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A220" s="4">
         <v>219</v>
       </c>
-      <c r="B220">
+      <c r="B220" s="2">
+        <f>DATE(2005,3,1)</f>
+        <v>38412</v>
+      </c>
+      <c r="C220" s="3">
         <v>-10.42328084906211</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="1">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A221" s="4">
         <v>220</v>
       </c>
-      <c r="B221">
+      <c r="B221" s="2">
+        <f>DATE(2005,4,1)</f>
+        <v>38443</v>
+      </c>
+      <c r="C221" s="3">
         <v>-60.263601376217593</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A222" s="1">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A222" s="4">
         <v>221</v>
       </c>
-      <c r="B222">
+      <c r="B222" s="2">
+        <f>DATE(2005,5,1)</f>
+        <v>38473</v>
+      </c>
+      <c r="C222" s="3">
         <v>18.6183458621386</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A223" s="1">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A223" s="4">
         <v>222</v>
       </c>
-      <c r="B223">
+      <c r="B223" s="2">
+        <f>DATE(2005,6,1)</f>
+        <v>38504</v>
+      </c>
+      <c r="C223" s="3">
         <v>-7.8799090003735728</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="1">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A224" s="4">
         <v>223</v>
       </c>
-      <c r="B224">
+      <c r="B224" s="2">
+        <f>DATE(2005,7,1)</f>
+        <v>38534</v>
+      </c>
+      <c r="C224" s="3">
         <v>-30.397053000120081</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A225" s="1">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A225" s="4">
         <v>224</v>
       </c>
-      <c r="B225">
+      <c r="B225" s="2">
+        <f>DATE(2005,8,1)</f>
+        <v>38565</v>
+      </c>
+      <c r="C225" s="3">
         <v>16.512604970909589</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A226" s="1">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A226" s="4">
         <v>225</v>
       </c>
-      <c r="B226">
+      <c r="B226" s="2">
+        <f>DATE(2005,9,1)</f>
+        <v>38596</v>
+      </c>
+      <c r="C226" s="3">
         <v>-21.132747414737992</v>
       </c>
     </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="1">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A227" s="4">
         <v>226</v>
       </c>
-      <c r="B227">
+      <c r="B227" s="2">
+        <f>DATE(2005,10,1)</f>
+        <v>38626</v>
+      </c>
+      <c r="C227" s="3">
         <v>-35.661496125930057</v>
       </c>
     </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A228" s="1">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A228" s="4">
         <v>227</v>
       </c>
-      <c r="B228">
+      <c r="B228" s="2">
+        <f>DATE(2005,11,1)</f>
+        <v>38657</v>
+      </c>
+      <c r="C228" s="3">
         <v>-40.640323644650493</v>
       </c>
     </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A229" s="1">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A229" s="4">
         <v>228</v>
       </c>
-      <c r="B229">
+      <c r="B229" s="2">
+        <f>DATE(2005,12,1)</f>
+        <v>38687</v>
+      </c>
+      <c r="C229" s="3">
         <v>102.84610299474561</v>
       </c>
     </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="1">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A230" s="4">
         <v>229</v>
       </c>
-      <c r="B230">
+      <c r="B230" s="2">
+        <f>DATE(2006,1,1)</f>
+        <v>38718</v>
+      </c>
+      <c r="C230" s="3">
         <v>153.6495827198583</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A231" s="1">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A231" s="4">
         <v>230</v>
       </c>
-      <c r="B231">
+      <c r="B231" s="2">
+        <f>DATE(2006,2,1)</f>
+        <v>38749</v>
+      </c>
+      <c r="C231" s="3">
         <v>43.842886671335407</v>
       </c>
     </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A232" s="1">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A232" s="4">
         <v>231</v>
       </c>
-      <c r="B232">
+      <c r="B232" s="2">
+        <f>DATE(2006,3,1)</f>
+        <v>38777</v>
+      </c>
+      <c r="C232" s="3">
         <v>-14.714784426504711</v>
       </c>
     </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="1">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A233" s="4">
         <v>232</v>
       </c>
-      <c r="B233">
+      <c r="B233" s="2">
+        <f>DATE(2006,4,1)</f>
+        <v>38808</v>
+      </c>
+      <c r="C233" s="3">
         <v>-115.1255899286389</v>
       </c>
     </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A234" s="1">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A234" s="4">
         <v>233</v>
       </c>
-      <c r="B234">
+      <c r="B234" s="2">
+        <f>DATE(2006,5,1)</f>
+        <v>38838</v>
+      </c>
+      <c r="C234" s="3">
         <v>-19.797991546174359</v>
       </c>
     </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A235" s="1">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A235" s="4">
         <v>234</v>
       </c>
-      <c r="B235">
+      <c r="B235" s="2">
+        <f>DATE(2006,6,1)</f>
+        <v>38869</v>
+      </c>
+      <c r="C235" s="3">
         <v>5.0120841259301594</v>
       </c>
     </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="1">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A236" s="4">
         <v>235</v>
       </c>
-      <c r="B236">
+      <c r="B236" s="2">
+        <f>DATE(2006,7,1)</f>
+        <v>38899</v>
+      </c>
+      <c r="C236" s="3">
         <v>-33.50996870257984</v>
       </c>
     </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A237" s="1">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A237" s="4">
         <v>236</v>
       </c>
-      <c r="B237">
+      <c r="B237" s="2">
+        <f>DATE(2006,8,1)</f>
+        <v>38930</v>
+      </c>
+      <c r="C237" s="3">
         <v>-41.590903359579571</v>
       </c>
     </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A238" s="1">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A238" s="4">
         <v>237</v>
       </c>
-      <c r="B238">
+      <c r="B238" s="2">
+        <f>DATE(2006,9,1)</f>
+        <v>38961</v>
+      </c>
+      <c r="C238" s="3">
         <v>53.685149939131037</v>
       </c>
     </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="1">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A239" s="4">
         <v>238</v>
       </c>
-      <c r="B239">
+      <c r="B239" s="2">
+        <f>DATE(2006,10,1)</f>
+        <v>38991</v>
+      </c>
+      <c r="C239" s="3">
         <v>-25.478184571980361</v>
       </c>
     </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A240" s="1">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A240" s="4">
         <v>239</v>
       </c>
-      <c r="B240">
+      <c r="B240" s="2">
+        <f>DATE(2006,11,1)</f>
+        <v>39022</v>
+      </c>
+      <c r="C240" s="3">
         <v>43.996312270399507</v>
       </c>
     </row>
-    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A241" s="1">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A241" s="4">
         <v>240</v>
       </c>
-      <c r="B241">
+      <c r="B241" s="2">
+        <f>DATE(2006,12,1)</f>
+        <v>39052</v>
+      </c>
+      <c r="C241" s="3">
         <v>-91.600177480418409</v>
       </c>
     </row>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="1">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A242" s="4">
         <v>241</v>
       </c>
-      <c r="B242">
+      <c r="B242" s="2">
+        <f>DATE(2007,1,1)</f>
+        <v>39083</v>
+      </c>
+      <c r="C242" s="3">
         <v>-6.2086223131813938</v>
       </c>
     </row>
-    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A243" s="1">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A243" s="4">
         <v>242</v>
       </c>
-      <c r="B243">
+      <c r="B243" s="2">
+        <f>DATE(2007,2,1)</f>
+        <v>39114</v>
+      </c>
+      <c r="C243" s="3">
         <v>52.441256220813607</v>
       </c>
     </row>
-    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A244" s="1">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A244" s="4">
         <v>243</v>
       </c>
-      <c r="B244">
+      <c r="B244" s="2">
+        <f>DATE(2007,3,1)</f>
+        <v>39142</v>
+      </c>
+      <c r="C244" s="3">
         <v>-43.967362738593962</v>
       </c>
     </row>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="1">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A245" s="4">
         <v>244</v>
       </c>
-      <c r="B245">
+      <c r="B245" s="2">
+        <f>DATE(2007,4,1)</f>
+        <v>39173</v>
+      </c>
+      <c r="C245" s="3">
         <v>-65.240163522705075</v>
       </c>
     </row>
-    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A246" s="1">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A246" s="4">
         <v>245</v>
       </c>
-      <c r="B246">
+      <c r="B246" s="2">
+        <f>DATE(2007,5,1)</f>
+        <v>39203</v>
+      </c>
+      <c r="C246" s="3">
         <v>-8.2554952076623067</v>
       </c>
     </row>
-    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A247" s="1">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A247" s="4">
         <v>246</v>
       </c>
-      <c r="B247">
+      <c r="B247" s="2">
+        <f>DATE(2007,6,1)</f>
+        <v>39234</v>
+      </c>
+      <c r="C247" s="3">
         <v>7.7510584832432414</v>
       </c>
     </row>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="1">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A248" s="4">
         <v>247</v>
       </c>
-      <c r="B248">
+      <c r="B248" s="2">
+        <f>DATE(2007,7,1)</f>
+        <v>39264</v>
+      </c>
+      <c r="C248" s="3">
         <v>-17.864939994778521</v>
       </c>
     </row>
-    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A249" s="1">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A249" s="4">
         <v>248</v>
       </c>
-      <c r="B249">
+      <c r="B249" s="2">
+        <f>DATE(2007,8,1)</f>
+        <v>39295</v>
+      </c>
+      <c r="C249" s="3">
         <v>9.1369547164485994</v>
       </c>
     </row>
-    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A250" s="1">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A250" s="4">
         <v>249</v>
       </c>
-      <c r="B250">
+      <c r="B250" s="2">
+        <f>DATE(2007,9,1)</f>
+        <v>39326</v>
+      </c>
+      <c r="C250" s="3">
         <v>-11.34870312913</v>
       </c>
     </row>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="1">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A251" s="4">
         <v>250</v>
       </c>
-      <c r="B251">
+      <c r="B251" s="2">
+        <f>DATE(2007,10,1)</f>
+        <v>39356</v>
+      </c>
+      <c r="C251" s="3">
         <v>-12.50854060242688</v>
       </c>
     </row>
-    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A252" s="1">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A252" s="4">
         <v>251</v>
       </c>
-      <c r="B252">
+      <c r="B252" s="2">
+        <f>DATE(2007,11,1)</f>
+        <v>39387</v>
+      </c>
+      <c r="C252" s="3">
         <v>4.9818364189032991</v>
       </c>
     </row>
-    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A253" s="1">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A253" s="4">
         <v>252</v>
       </c>
-      <c r="B253">
+      <c r="B253" s="2">
+        <f>DATE(2007,12,1)</f>
+        <v>39417</v>
+      </c>
+      <c r="C253" s="3">
         <v>261.4191926720207</v>
       </c>
     </row>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="1">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A254" s="4">
         <v>253</v>
       </c>
-      <c r="B254">
+      <c r="B254" s="2">
+        <f>DATE(2008,1,1)</f>
+        <v>39448</v>
+      </c>
+      <c r="C254" s="3">
         <v>-49.85988523056983</v>
       </c>
     </row>
-    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A255" s="1">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A255" s="4">
         <v>254</v>
       </c>
-      <c r="B255">
+      <c r="B255" s="2">
+        <f>DATE(2008,2,1)</f>
+        <v>39479</v>
+      </c>
+      <c r="C255" s="3">
         <v>97.681702608644684</v>
       </c>
     </row>
-    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A256" s="1">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A256" s="4">
         <v>255</v>
       </c>
-      <c r="B256">
+      <c r="B256" s="2">
+        <f>DATE(2008,3,1)</f>
+        <v>39508</v>
+      </c>
+      <c r="C256" s="3">
         <v>1.786027158450906</v>
       </c>
     </row>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="1">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A257" s="4">
         <v>256</v>
       </c>
-      <c r="B257">
+      <c r="B257" s="2">
+        <f>DATE(2008,4,1)</f>
+        <v>39539</v>
+      </c>
+      <c r="C257" s="3">
         <v>26.003689412479702</v>
       </c>
     </row>
-    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A258" s="1">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A258" s="4">
         <v>257</v>
       </c>
-      <c r="B258">
+      <c r="B258" s="2">
+        <f>DATE(2008,5,1)</f>
+        <v>39569</v>
+      </c>
+      <c r="C258" s="3">
         <v>-22.61085777258825</v>
       </c>
     </row>
-    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A259" s="1">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A259" s="4">
         <v>258</v>
       </c>
-      <c r="B259">
+      <c r="B259" s="2">
+        <f>DATE(2008,6,1)</f>
+        <v>39600</v>
+      </c>
+      <c r="C259" s="3">
         <v>74.803096857984144</v>
       </c>
     </row>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="1">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A260" s="4">
         <v>259</v>
       </c>
-      <c r="B260">
+      <c r="B260" s="2">
+        <f>DATE(2008,7,1)</f>
+        <v>39630</v>
+      </c>
+      <c r="C260" s="3">
         <v>-64.595190459763899</v>
       </c>
     </row>
-    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A261" s="1">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A261" s="4">
         <v>260</v>
       </c>
-      <c r="B261">
+      <c r="B261" s="2">
+        <f>DATE(2008,8,1)</f>
+        <v>39661</v>
+      </c>
+      <c r="C261" s="3">
         <v>-2.9805917180583781</v>
       </c>
     </row>
-    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A262" s="1">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A262" s="4">
         <v>261</v>
       </c>
-      <c r="B262">
+      <c r="B262" s="2">
+        <f>DATE(2008,9,1)</f>
+        <v>39692</v>
+      </c>
+      <c r="C262" s="3">
         <v>-7.5490928912604147</v>
       </c>
     </row>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="1">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A263" s="4">
         <v>262</v>
       </c>
-      <c r="B263">
+      <c r="B263" s="2">
+        <f>DATE(2008,10,1)</f>
+        <v>39722</v>
+      </c>
+      <c r="C263" s="3">
         <v>-25.004808144391891</v>
       </c>
     </row>
-    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A264" s="1">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A264" s="4">
         <v>263</v>
       </c>
-      <c r="B264">
+      <c r="B264" s="2">
+        <f>DATE(2008,11,1)</f>
+        <v>39753</v>
+      </c>
+      <c r="C264" s="3">
         <v>-7.6237526128742843</v>
       </c>
     </row>
-    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A265" s="1">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A265" s="4">
         <v>264</v>
       </c>
-      <c r="B265">
+      <c r="B265" s="2">
+        <f>DATE(2008,12,1)</f>
+        <v>39783</v>
+      </c>
+      <c r="C265" s="3">
         <v>66.843775484878847</v>
       </c>
     </row>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="1">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A266" s="4">
         <v>265</v>
       </c>
-      <c r="B266">
+      <c r="B266" s="2">
+        <f>DATE(2009,1,1)</f>
+        <v>39814</v>
+      </c>
+      <c r="C266" s="3">
         <v>30.870253179450849</v>
       </c>
     </row>
-    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A267" s="1">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A267" s="4">
         <v>266</v>
       </c>
-      <c r="B267">
+      <c r="B267" s="2">
+        <f>DATE(2009,2,1)</f>
+        <v>39845</v>
+      </c>
+      <c r="C267" s="3">
         <v>71.842300648826622</v>
       </c>
     </row>
-    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A268" s="1">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A268" s="4">
         <v>267</v>
       </c>
-      <c r="B268">
+      <c r="B268" s="2">
+        <f>DATE(2009,3,1)</f>
+        <v>39873</v>
+      </c>
+      <c r="C268" s="3">
         <v>-3.4900581401418411</v>
       </c>
     </row>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="1">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A269" s="4">
         <v>268</v>
       </c>
-      <c r="B269">
+      <c r="B269" s="2">
+        <f>DATE(2009,4,1)</f>
+        <v>39904</v>
+      </c>
+      <c r="C269" s="3">
         <v>-9.8754498116018681</v>
       </c>
     </row>
-    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A270" s="1">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A270" s="4">
         <v>269</v>
       </c>
-      <c r="B270">
+      <c r="B270" s="2">
+        <f>DATE(2009,5,1)</f>
+        <v>39934</v>
+      </c>
+      <c r="C270" s="3">
         <v>-132.2269530130574</v>
       </c>
     </row>
-    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A271" s="1">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A271" s="4">
         <v>270</v>
       </c>
-      <c r="B271">
+      <c r="B271" s="2">
+        <f>DATE(2009,6,1)</f>
+        <v>39965</v>
+      </c>
+      <c r="C271" s="3">
         <v>-17.579157198702891</v>
       </c>
     </row>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="1">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A272" s="4">
         <v>271</v>
       </c>
-      <c r="B272">
+      <c r="B272" s="2">
+        <f>DATE(2009,7,1)</f>
+        <v>39995</v>
+      </c>
+      <c r="C272" s="3">
         <v>-7.1067525346363709</v>
       </c>
     </row>
-    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A273" s="1">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A273" s="4">
         <v>272</v>
       </c>
-      <c r="B273">
+      <c r="B273" s="2">
+        <f>DATE(2009,8,1)</f>
+        <v>40026</v>
+      </c>
+      <c r="C273" s="3">
         <v>42.847902695777456</v>
       </c>
     </row>
-    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A274" s="1">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A274" s="4">
         <v>273</v>
       </c>
-      <c r="B274">
+      <c r="B274" s="2">
+        <f>DATE(2009,9,1)</f>
+        <v>40057</v>
+      </c>
+      <c r="C274" s="3">
         <v>10.020640176810961</v>
       </c>
     </row>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="1">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A275" s="4">
         <v>274</v>
       </c>
-      <c r="B275">
+      <c r="B275" s="2">
+        <f>DATE(2009,10,1)</f>
+        <v>40087</v>
+      </c>
+      <c r="C275" s="3">
         <v>0.62623990050076372</v>
       </c>
     </row>
-    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A276" s="1">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A276" s="4">
         <v>275</v>
       </c>
-      <c r="B276">
+      <c r="B276" s="2">
+        <f>DATE(2009,11,1)</f>
+        <v>40118</v>
+      </c>
+      <c r="C276" s="3">
         <v>22.576535414508442</v>
       </c>
     </row>
-    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A277" s="1">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A277" s="4">
         <v>276</v>
       </c>
-      <c r="B277">
+      <c r="B277" s="2">
+        <f>DATE(2009,12,1)</f>
+        <v>40148</v>
+      </c>
+      <c r="C277" s="3">
         <v>6.0253024203945529</v>
       </c>
     </row>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="1">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A278" s="4">
         <v>277</v>
       </c>
-      <c r="B278">
+      <c r="B278" s="2">
+        <f>DATE(2010,1,1)</f>
+        <v>40179</v>
+      </c>
+      <c r="C278" s="3">
         <v>2.4453024671973371</v>
       </c>
     </row>
-    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A279" s="1">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A279" s="4">
         <v>278</v>
       </c>
-      <c r="B279">
+      <c r="B279" s="2">
+        <f>DATE(2010,2,1)</f>
+        <v>40210</v>
+      </c>
+      <c r="C279" s="3">
         <v>-31.420312403064091</v>
       </c>
     </row>
-    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A280" s="1">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A280" s="4">
         <v>279</v>
       </c>
-      <c r="B280">
+      <c r="B280" s="2">
+        <f>DATE(2010,3,1)</f>
+        <v>40238</v>
+      </c>
+      <c r="C280" s="3">
         <v>-21.74521911536317</v>
       </c>
     </row>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="1">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A281" s="4">
         <v>280</v>
       </c>
-      <c r="B281">
+      <c r="B281" s="2">
+        <f>DATE(2010,4,1)</f>
+        <v>40269</v>
+      </c>
+      <c r="C281" s="3">
         <v>-20.574981658756769</v>
       </c>
     </row>
-    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A282" s="1">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A282" s="4">
         <v>281</v>
       </c>
-      <c r="B282">
+      <c r="B282" s="2">
+        <f>DATE(2010,5,1)</f>
+        <v>40299</v>
+      </c>
+      <c r="C282" s="3">
         <v>-20.568151275057289</v>
       </c>
     </row>
-    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A283" s="1">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A283" s="4">
         <v>282</v>
       </c>
-      <c r="B283">
+      <c r="B283" s="2">
+        <f>DATE(2010,6,1)</f>
+        <v>40330</v>
+      </c>
+      <c r="C283" s="3">
         <v>40.867228463930637</v>
       </c>
     </row>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="1">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A284" s="4">
         <v>283</v>
       </c>
-      <c r="B284">
+      <c r="B284" s="2">
+        <f>DATE(2010,7,1)</f>
+        <v>40360</v>
+      </c>
+      <c r="C284" s="3">
         <v>223.72668718216019</v>
       </c>
     </row>
-    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A285" s="1">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A285" s="4">
         <v>284</v>
       </c>
-      <c r="B285">
+      <c r="B285" s="2">
+        <f>DATE(2010,8,1)</f>
+        <v>40391</v>
+      </c>
+      <c r="C285" s="3">
         <v>-41.678239639546597</v>
       </c>
     </row>
-    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A286" s="1">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A286" s="4">
         <v>285</v>
       </c>
-      <c r="B286">
+      <c r="B286" s="2">
+        <f>DATE(2010,9,1)</f>
+        <v>40422</v>
+      </c>
+      <c r="C286" s="3">
         <v>15.836621961466999</v>
       </c>
     </row>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="1">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A287" s="4">
         <v>286</v>
       </c>
-      <c r="B287">
+      <c r="B287" s="2">
+        <f>DATE(2010,10,1)</f>
+        <v>40452</v>
+      </c>
+      <c r="C287" s="3">
         <v>-30.44351198455109</v>
       </c>
     </row>
-    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A288" s="1">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A288" s="4">
         <v>287</v>
       </c>
-      <c r="B288">
+      <c r="B288" s="2">
+        <f>DATE(2010,11,1)</f>
+        <v>40483</v>
+      </c>
+      <c r="C288" s="3">
         <v>-7.1865996822337763</v>
       </c>
     </row>
-    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A289" s="1">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A289" s="4">
         <v>288</v>
       </c>
-      <c r="B289">
+      <c r="B289" s="2">
+        <f>DATE(2010,12,1)</f>
+        <v>40513</v>
+      </c>
+      <c r="C289" s="3">
         <v>-83.550978064341848</v>
       </c>
     </row>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="1">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A290" s="4">
         <v>289</v>
       </c>
-      <c r="B290">
+      <c r="B290" s="2">
+        <f>DATE(2011,1,1)</f>
+        <v>40544</v>
+      </c>
+      <c r="C290" s="3">
         <v>-13.440537928386791</v>
       </c>
     </row>
-    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A291" s="1">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A291" s="4">
         <v>290</v>
       </c>
-      <c r="B291">
+      <c r="B291" s="2">
+        <f>DATE(2011,2,1)</f>
+        <v>40575</v>
+      </c>
+      <c r="C291" s="3">
         <v>6.8073450510682108</v>
       </c>
     </row>
-    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A292" s="1">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A292" s="4">
         <v>291</v>
       </c>
-      <c r="B292">
+      <c r="B292" s="2">
+        <f>DATE(2011,3,1)</f>
+        <v>40603</v>
+      </c>
+      <c r="C292" s="3">
         <v>20.063701291417431</v>
       </c>
     </row>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="1">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A293" s="4">
         <v>292</v>
       </c>
-      <c r="B293">
+      <c r="B293" s="2">
+        <f>DATE(2011,4,1)</f>
+        <v>40634</v>
+      </c>
+      <c r="C293" s="3">
         <v>-9.9828886554787601</v>
       </c>
     </row>
-    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A294" s="1">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A294" s="4">
         <v>293</v>
       </c>
-      <c r="B294">
+      <c r="B294" s="2">
+        <f>DATE(2011,5,1)</f>
+        <v>40664</v>
+      </c>
+      <c r="C294" s="3">
         <v>-28.2705981739865</v>
       </c>
     </row>
-    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A295" s="1">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A295" s="4">
         <v>294</v>
       </c>
-      <c r="B295">
+      <c r="B295" s="2">
+        <f>DATE(2011,6,1)</f>
+        <v>40695</v>
+      </c>
+      <c r="C295" s="3">
         <v>-99.150310967762678</v>
       </c>
     </row>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="1">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A296" s="4">
         <v>295</v>
       </c>
-      <c r="B296">
+      <c r="B296" s="2">
+        <f>DATE(2011,7,1)</f>
+        <v>40725</v>
+      </c>
+      <c r="C296" s="3">
         <v>4.1669600703349943</v>
       </c>
     </row>
-    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A297" s="1">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A297" s="4">
         <v>296</v>
       </c>
-      <c r="B297">
+      <c r="B297" s="2">
+        <f>DATE(2011,8,1)</f>
+        <v>40756</v>
+      </c>
+      <c r="C297" s="3">
         <v>20.619047408841571</v>
       </c>
     </row>
-    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A298" s="1">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A298" s="4">
         <v>297</v>
       </c>
-      <c r="B298">
+      <c r="B298" s="2">
+        <f>DATE(2011,9,1)</f>
+        <v>40787</v>
+      </c>
+      <c r="C298" s="3">
         <v>-29.51084718436238</v>
       </c>
     </row>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="1">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A299" s="4">
         <v>298</v>
       </c>
-      <c r="B299">
+      <c r="B299" s="2">
+        <f>DATE(2011,10,1)</f>
+        <v>40817</v>
+      </c>
+      <c r="C299" s="3">
         <v>-15.67038741436161</v>
       </c>
     </row>
-    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A300" s="1">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A300" s="4">
         <v>299</v>
       </c>
-      <c r="B300">
+      <c r="B300" s="2">
+        <f>DATE(2011,11,1)</f>
+        <v>40848</v>
+      </c>
+      <c r="C300" s="3">
         <v>-39.979956228851712</v>
       </c>
     </row>
-    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A301" s="1">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A301" s="4">
         <v>300</v>
       </c>
-      <c r="B301">
+      <c r="B301" s="2">
+        <f>DATE(2011,12,1)</f>
+        <v>40878</v>
+      </c>
+      <c r="C301" s="3">
         <v>14.100752287023971</v>
       </c>
     </row>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="1">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A302" s="4">
         <v>301</v>
       </c>
-      <c r="B302">
+      <c r="B302" s="2">
+        <f>DATE(2012,1,1)</f>
+        <v>40909</v>
+      </c>
+      <c r="C302" s="3">
         <v>-0.75857650367476026</v>
       </c>
     </row>
-    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A303" s="1">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A303" s="4">
         <v>302</v>
       </c>
-      <c r="B303">
+      <c r="B303" s="2">
+        <f>DATE(2012,2,1)</f>
+        <v>40940</v>
+      </c>
+      <c r="C303" s="3">
         <v>-6.403307268010451</v>
       </c>
     </row>
-    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A304" s="1">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A304" s="4">
         <v>303</v>
       </c>
-      <c r="B304">
+      <c r="B304" s="2">
+        <f>DATE(2012,3,1)</f>
+        <v>40969</v>
+      </c>
+      <c r="C304" s="3">
         <v>-0.65210857310933079</v>
       </c>
     </row>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="1">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A305" s="4">
         <v>304</v>
       </c>
-      <c r="B305">
+      <c r="B305" s="2">
+        <f>DATE(2012,4,1)</f>
+        <v>41000</v>
+      </c>
+      <c r="C305" s="3">
         <v>-17.530724488149421</v>
       </c>
     </row>
-    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A306" s="1">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A306" s="4">
         <v>305</v>
       </c>
-      <c r="B306">
+      <c r="B306" s="2">
+        <f>DATE(2012,5,1)</f>
+        <v>41030</v>
+      </c>
+      <c r="C306" s="3">
         <v>-29.77708280667127</v>
       </c>
     </row>
-    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A307" s="1">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A307" s="4">
         <v>306</v>
       </c>
-      <c r="B307">
+      <c r="B307" s="2">
+        <f>DATE(2012,6,1)</f>
+        <v>41061</v>
+      </c>
+      <c r="C307" s="3">
         <v>-27.216036732907181</v>
       </c>
     </row>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="1">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A308" s="4">
         <v>307</v>
       </c>
-      <c r="B308">
+      <c r="B308" s="2">
+        <f>DATE(2012,7,1)</f>
+        <v>41091</v>
+      </c>
+      <c r="C308" s="3">
         <v>-32.415247645628938</v>
       </c>
     </row>
-    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A309" s="1">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A309" s="4">
         <v>308</v>
       </c>
-      <c r="B309">
+      <c r="B309" s="2">
+        <f>DATE(2012,8,1)</f>
+        <v>41122</v>
+      </c>
+      <c r="C309" s="3">
         <v>-33.348600913914247</v>
       </c>
     </row>
-    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A310" s="1">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A310" s="4">
         <v>309</v>
       </c>
-      <c r="B310">
+      <c r="B310" s="2">
+        <f>DATE(2012,9,1)</f>
+        <v>41153</v>
+      </c>
+      <c r="C310" s="3">
         <v>6.2406065835279492</v>
       </c>
     </row>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="1">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A311" s="4">
         <v>310</v>
       </c>
-      <c r="B311">
+      <c r="B311" s="2">
+        <f>DATE(2012,10,1)</f>
+        <v>41183</v>
+      </c>
+      <c r="C311" s="3">
         <v>-57.755290246085544</v>
       </c>
     </row>
-    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A312" s="1">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A312" s="4">
         <v>311</v>
       </c>
-      <c r="B312">
+      <c r="B312" s="2">
+        <f>DATE(2012,11,1)</f>
+        <v>41214</v>
+      </c>
+      <c r="C312" s="3">
         <v>132.87618183195991</v>
       </c>
     </row>
-    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A313" s="1">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A313" s="4">
         <v>312</v>
       </c>
-      <c r="B313">
+      <c r="B313" s="2">
+        <f>DATE(2012,12,1)</f>
+        <v>41244</v>
+      </c>
+      <c r="C313" s="3">
         <v>89.572678615706366</v>
       </c>
     </row>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="1">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A314" s="4">
         <v>313</v>
       </c>
-      <c r="B314">
+      <c r="B314" s="2">
+        <f>DATE(2013,1,1)</f>
+        <v>41275</v>
+      </c>
+      <c r="C314" s="3">
         <v>-7.3054319087481758</v>
       </c>
     </row>
-    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A315" s="1">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A315" s="4">
         <v>314</v>
       </c>
-      <c r="B315">
+      <c r="B315" s="2">
+        <f>DATE(2013,2,1)</f>
+        <v>41306</v>
+      </c>
+      <c r="C315" s="3">
         <v>-11.5275569455581</v>
       </c>
     </row>
-    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A316" s="1">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A316" s="4">
         <v>315</v>
       </c>
-      <c r="B316">
+      <c r="B316" s="2">
+        <f>DATE(2013,3,1)</f>
+        <v>41334</v>
+      </c>
+      <c r="C316" s="3">
         <v>-40.444689860465218</v>
       </c>
     </row>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="1">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A317" s="4">
         <v>316</v>
       </c>
-      <c r="B317">
+      <c r="B317" s="2">
+        <f>DATE(2013,4,1)</f>
+        <v>41365</v>
+      </c>
+      <c r="C317" s="3">
         <v>-37.199520202284589</v>
       </c>
     </row>
-    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A318" s="1">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A318" s="4">
         <v>317</v>
       </c>
-      <c r="B318">
+      <c r="B318" s="2">
+        <f>DATE(2013,5,1)</f>
+        <v>41395</v>
+      </c>
+      <c r="C318" s="3">
         <v>-5.7012114560681084</v>
       </c>
     </row>
-    <row r="319" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A319" s="1">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A319" s="4">
         <v>318</v>
       </c>
-      <c r="B319">
+      <c r="B319" s="2">
+        <f>DATE(2013,6,1)</f>
+        <v>41426</v>
+      </c>
+      <c r="C319" s="3">
         <v>-1.0854629995636169</v>
       </c>
     </row>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="1">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A320" s="4">
         <v>319</v>
       </c>
-      <c r="B320">
+      <c r="B320" s="2">
+        <f>DATE(2013,7,1)</f>
+        <v>41456</v>
+      </c>
+      <c r="C320" s="3">
         <v>-6.7680271597856176</v>
       </c>
     </row>
-    <row r="321" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A321" s="1">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A321" s="4">
         <v>320</v>
       </c>
-      <c r="B321">
+      <c r="B321" s="2">
+        <f>DATE(2013,8,1)</f>
+        <v>41487</v>
+      </c>
+      <c r="C321" s="3">
         <v>14.862265156853059</v>
       </c>
     </row>
-    <row r="322" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A322" s="1">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A322" s="4">
         <v>321</v>
       </c>
-      <c r="B322">
+      <c r="B322" s="2">
+        <f>DATE(2013,9,1)</f>
+        <v>41518</v>
+      </c>
+      <c r="C322" s="3">
         <v>25.20560688477288</v>
       </c>
     </row>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="1">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A323" s="4">
         <v>322</v>
       </c>
-      <c r="B323">
+      <c r="B323" s="2">
+        <f>DATE(2013,10,1)</f>
+        <v>41548</v>
+      </c>
+      <c r="C323" s="3">
         <v>-15.43396584133848</v>
       </c>
     </row>
-    <row r="324" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A324" s="1">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A324" s="4">
         <v>323</v>
       </c>
-      <c r="B324">
+      <c r="B324" s="2">
+        <f>DATE(2013,11,1)</f>
+        <v>41579</v>
+      </c>
+      <c r="C324" s="3">
         <v>47.552578024025188</v>
       </c>
     </row>
-    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A325" s="1">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A325" s="4">
         <v>324</v>
       </c>
-      <c r="B325">
+      <c r="B325" s="2">
+        <f>DATE(2013,12,1)</f>
+        <v>41609</v>
+      </c>
+      <c r="C325" s="3">
         <v>17.331754065551081</v>
       </c>
     </row>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="1">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A326" s="4">
         <v>325</v>
       </c>
-      <c r="B326">
+      <c r="B326" s="2">
+        <f>DATE(2014,1,1)</f>
+        <v>41640</v>
+      </c>
+      <c r="C326" s="3">
         <v>86.486598373016363</v>
       </c>
     </row>
-    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A327" s="1">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A327" s="4">
         <v>326</v>
       </c>
-      <c r="B327">
+      <c r="B327" s="2">
+        <f>DATE(2014,2,1)</f>
+        <v>41671</v>
+      </c>
+      <c r="C327" s="3">
         <v>20.682368885552648</v>
       </c>
     </row>
-    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A328" s="1">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A328" s="4">
         <v>327</v>
       </c>
-      <c r="B328">
+      <c r="B328" s="2">
+        <f>DATE(2014,3,1)</f>
+        <v>41699</v>
+      </c>
+      <c r="C328" s="3">
         <v>36.700695323106338</v>
       </c>
     </row>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="1">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A329" s="4">
         <v>328</v>
       </c>
-      <c r="B329">
+      <c r="B329" s="2">
+        <f>DATE(2014,4,1)</f>
+        <v>41730</v>
+      </c>
+      <c r="C329" s="3">
         <v>-49.40961828117446</v>
       </c>
     </row>
-    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A330" s="1">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A330" s="4">
         <v>329</v>
       </c>
-      <c r="B330">
+      <c r="B330" s="2">
+        <f>DATE(2014,5,1)</f>
+        <v>41760</v>
+      </c>
+      <c r="C330" s="3">
         <v>-122.5391017988491</v>
       </c>
     </row>
-    <row r="331" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A331" s="1">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A331" s="4">
         <v>330</v>
       </c>
-      <c r="B331">
+      <c r="B331" s="2">
+        <f>DATE(2014,6,1)</f>
+        <v>41791</v>
+      </c>
+      <c r="C331" s="3">
         <v>61.839169952987163</v>
       </c>
     </row>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="1">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A332" s="4">
         <v>331</v>
       </c>
-      <c r="B332">
+      <c r="B332" s="2">
+        <f>DATE(2014,7,1)</f>
+        <v>41821</v>
+      </c>
+      <c r="C332" s="3">
         <v>-7.8260643660872802</v>
       </c>
     </row>
-    <row r="333" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A333" s="1">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A333" s="4">
         <v>332</v>
       </c>
-      <c r="B333">
+      <c r="B333" s="2">
+        <f>DATE(2014,8,1)</f>
+        <v>41852</v>
+      </c>
+      <c r="C333" s="3">
         <v>25.608116322706</v>
       </c>
     </row>
-    <row r="334" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A334" s="1">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A334" s="4">
         <v>333</v>
       </c>
-      <c r="B334">
+      <c r="B334" s="2">
+        <f>DATE(2014,9,1)</f>
+        <v>41883</v>
+      </c>
+      <c r="C334" s="3">
         <v>8.5093632269533259</v>
       </c>
     </row>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="1">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A335" s="4">
         <v>334</v>
       </c>
-      <c r="B335">
+      <c r="B335" s="2">
+        <f>DATE(2014,10,1)</f>
+        <v>41913</v>
+      </c>
+      <c r="C335" s="3">
         <v>5.4123996457542489</v>
       </c>
     </row>
-    <row r="336" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A336" s="1">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A336" s="4">
         <v>335</v>
       </c>
-      <c r="B336">
+      <c r="B336" s="2">
+        <f>DATE(2014,11,1)</f>
+        <v>41944</v>
+      </c>
+      <c r="C336" s="3">
         <v>-6.3348970743421091</v>
       </c>
     </row>
-    <row r="337" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A337" s="1">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A337" s="4">
         <v>336</v>
       </c>
-      <c r="B337">
+      <c r="B337" s="2">
+        <f>DATE(2014,12,1)</f>
+        <v>41974</v>
+      </c>
+      <c r="C337" s="3">
         <v>16.689320317083801</v>
       </c>
     </row>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="1">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A338" s="4">
         <v>337</v>
       </c>
-      <c r="B338">
+      <c r="B338" s="2">
+        <f>DATE(2015,1,1)</f>
+        <v>42005</v>
+      </c>
+      <c r="C338" s="3">
         <v>-4.3267993663022821</v>
       </c>
     </row>
-    <row r="339" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A339" s="1">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A339" s="4">
         <v>338</v>
       </c>
-      <c r="B339">
+      <c r="B339" s="2">
+        <f>DATE(2015,2,1)</f>
+        <v>42036</v>
+      </c>
+      <c r="C339" s="3">
         <v>-17.9053170511155</v>
       </c>
     </row>
-    <row r="340" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A340" s="1">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A340" s="4">
         <v>339</v>
       </c>
-      <c r="B340">
+      <c r="B340" s="2">
+        <f>DATE(2015,3,1)</f>
+        <v>42064</v>
+      </c>
+      <c r="C340" s="3">
         <v>-46.289497612217531</v>
       </c>
     </row>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="1">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A341" s="4">
         <v>340</v>
       </c>
-      <c r="B341">
+      <c r="B341" s="2">
+        <f>DATE(2015,4,1)</f>
+        <v>42095</v>
+      </c>
+      <c r="C341" s="3">
         <v>39.769851442493753</v>
       </c>
     </row>
-    <row r="342" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A342" s="1">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A342" s="4">
         <v>341</v>
       </c>
-      <c r="B342">
+      <c r="B342" s="2">
+        <f>DATE(2015,5,1)</f>
+        <v>42125</v>
+      </c>
+      <c r="C342" s="3">
         <v>193.00071171908229</v>
       </c>
     </row>
-    <row r="343" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A343" s="1">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A343" s="4">
         <v>342</v>
       </c>
-      <c r="B343">
+      <c r="B343" s="2">
+        <f>DATE(2015,6,1)</f>
+        <v>42156</v>
+      </c>
+      <c r="C343" s="3">
         <v>-12.12917675959301</v>
       </c>
     </row>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="1">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A344" s="4">
         <v>343</v>
       </c>
-      <c r="B344">
+      <c r="B344" s="2">
+        <f>DATE(2015,7,1)</f>
+        <v>42186</v>
+      </c>
+      <c r="C344" s="3">
         <v>10.45782700379203</v>
       </c>
     </row>
-    <row r="345" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A345" s="1">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A345" s="4">
         <v>344</v>
       </c>
-      <c r="B345">
+      <c r="B345" s="2">
+        <f>DATE(2015,8,1)</f>
+        <v>42217</v>
+      </c>
+      <c r="C345" s="3">
         <v>-48.476043756666257</v>
       </c>
     </row>
-    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A346" s="1">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A346" s="4">
         <v>345</v>
       </c>
-      <c r="B346">
+      <c r="B346" s="2">
+        <f>DATE(2015,9,1)</f>
+        <v>42248</v>
+      </c>
+      <c r="C346" s="3">
         <v>-4.9308279052153239</v>
       </c>
     </row>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="1">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A347" s="4">
         <v>346</v>
       </c>
-      <c r="B347">
+      <c r="B347" s="2">
+        <f>DATE(2015,10,1)</f>
+        <v>42278</v>
+      </c>
+      <c r="C347" s="3">
         <v>-67.2992696071681</v>
       </c>
     </row>
-    <row r="348" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A348" s="1">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A348" s="4">
         <v>347</v>
       </c>
-      <c r="B348">
+      <c r="B348" s="2">
+        <f>DATE(2015,11,1)</f>
+        <v>42309</v>
+      </c>
+      <c r="C348" s="3">
         <v>41.31689001672558</v>
       </c>
     </row>
-    <row r="349" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A349" s="1">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A349" s="4">
         <v>348</v>
       </c>
-      <c r="B349">
+      <c r="B349" s="2">
+        <f>DATE(2015,12,1)</f>
+        <v>42339</v>
+      </c>
+      <c r="C349" s="3">
         <v>-37.287494315874852</v>
       </c>
     </row>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="1">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A350" s="4">
         <v>349</v>
       </c>
-      <c r="B350">
+      <c r="B350" s="2">
+        <f>DATE(2016,1,1)</f>
+        <v>42370</v>
+      </c>
+      <c r="C350" s="3">
         <v>34.251282775605517</v>
       </c>
     </row>
-    <row r="351" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A351" s="1">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A351" s="4">
         <v>350</v>
       </c>
-      <c r="B351">
+      <c r="B351" s="2">
+        <f>DATE(2016,2,1)</f>
+        <v>42401</v>
+      </c>
+      <c r="C351" s="3">
         <v>30.814225068697951</v>
       </c>
     </row>
-    <row r="352" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A352" s="1">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A352" s="4">
         <v>351</v>
       </c>
-      <c r="B352">
+      <c r="B352" s="2">
+        <f>DATE(2016,3,1)</f>
+        <v>42430</v>
+      </c>
+      <c r="C352" s="3">
         <v>11.84310477134615</v>
       </c>
     </row>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="1">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A353" s="4">
         <v>352</v>
       </c>
-      <c r="B353">
+      <c r="B353" s="2">
+        <f>DATE(2016,4,1)</f>
+        <v>42461</v>
+      </c>
+      <c r="C353" s="3">
         <v>15.88672961815894</v>
       </c>
     </row>
-    <row r="354" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A354" s="1">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A354" s="4">
         <v>353</v>
       </c>
-      <c r="B354">
+      <c r="B354" s="2">
+        <f>DATE(2016,5,1)</f>
+        <v>42491</v>
+      </c>
+      <c r="C354" s="3">
         <v>49.846619000505747</v>
       </c>
     </row>
-    <row r="355" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A355" s="1">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A355" s="4">
         <v>354</v>
       </c>
-      <c r="B355">
+      <c r="B355" s="2">
+        <f>DATE(2016,6,1)</f>
+        <v>42522</v>
+      </c>
+      <c r="C355" s="3">
         <v>22.690240568738101</v>
       </c>
     </row>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="1">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A356" s="4">
         <v>355</v>
       </c>
-      <c r="B356">
+      <c r="B356" s="2">
+        <f>DATE(2016,7,1)</f>
+        <v>42552</v>
+      </c>
+      <c r="C356" s="3">
         <v>49.466158896975863</v>
       </c>
     </row>
-    <row r="357" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A357" s="1">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A357" s="4">
         <v>356</v>
       </c>
-      <c r="B357">
+      <c r="B357" s="2">
+        <f>DATE(2016,8,1)</f>
+        <v>42583</v>
+      </c>
+      <c r="C357" s="3">
         <v>107.9985217646738</v>
       </c>
     </row>
-    <row r="358" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A358" s="1">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A358" s="4">
         <v>357</v>
       </c>
-      <c r="B358">
+      <c r="B358" s="2">
+        <f>DATE(2016,9,1)</f>
+        <v>42614</v>
+      </c>
+      <c r="C358" s="3">
         <v>46.633685128394923</v>
       </c>
     </row>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="1">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A359" s="4">
         <v>358</v>
       </c>
-      <c r="B359">
+      <c r="B359" s="2">
+        <f>DATE(2016,10,1)</f>
+        <v>42644</v>
+      </c>
+      <c r="C359" s="3">
         <v>65.336475848081363</v>
       </c>
     </row>
-    <row r="360" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A360" s="1">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A360" s="4">
         <v>359</v>
       </c>
-      <c r="B360">
+      <c r="B360" s="2">
+        <f>DATE(2016,11,1)</f>
+        <v>42675</v>
+      </c>
+      <c r="C360" s="3">
         <v>84.121518432182995</v>
       </c>
     </row>
-    <row r="361" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A361" s="1">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A361" s="4">
         <v>360</v>
       </c>
-      <c r="B361">
+      <c r="B361" s="2">
+        <f>DATE(2016,12,1)</f>
+        <v>42705</v>
+      </c>
+      <c r="C361" s="3">
         <v>60.231422834626763</v>
       </c>
     </row>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="1">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A362" s="4">
         <v>361</v>
       </c>
-      <c r="B362">
+      <c r="B362" s="2">
+        <f>DATE(2017,1,1)</f>
+        <v>42736</v>
+      </c>
+      <c r="C362" s="3">
         <v>79.437770683788358</v>
       </c>
     </row>
-    <row r="363" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A363" s="1">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A363" s="4">
         <v>362</v>
       </c>
-      <c r="B363">
+      <c r="B363" s="2">
+        <f>DATE(2017,2,1)</f>
+        <v>42767</v>
+      </c>
+      <c r="C363" s="3">
         <v>75.298334946861587</v>
       </c>
     </row>
-    <row r="364" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A364" s="1">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A364" s="4">
         <v>363</v>
       </c>
-      <c r="B364">
+      <c r="B364" s="2">
+        <f>DATE(2017,3,1)</f>
+        <v>42795</v>
+      </c>
+      <c r="C364" s="3">
         <v>44.657062506390623</v>
       </c>
     </row>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="1">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A365" s="4">
         <v>364</v>
       </c>
-      <c r="B365">
+      <c r="B365" s="2">
+        <f>DATE(2017,4,1)</f>
+        <v>42826</v>
+      </c>
+      <c r="C365" s="3">
         <v>55.759489527394066</v>
       </c>
     </row>
-    <row r="366" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A366" s="1">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A366" s="4">
         <v>365</v>
       </c>
-      <c r="B366">
+      <c r="B366" s="2">
+        <f>DATE(2017,5,1)</f>
+        <v>42856</v>
+      </c>
+      <c r="C366" s="3">
         <v>-117.19633381278619</v>
       </c>
     </row>
-    <row r="367" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A367" s="1">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A367" s="4">
         <v>366</v>
       </c>
-      <c r="B367">
+      <c r="B367" s="2">
+        <f>DATE(2017,6,1)</f>
+        <v>42887</v>
+      </c>
+      <c r="C367" s="3">
         <v>-52.550324176008758</v>
       </c>
     </row>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="1">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A368" s="4">
         <v>367</v>
       </c>
-      <c r="B368">
+      <c r="B368" s="2">
+        <f>DATE(2017,7,1)</f>
+        <v>42917</v>
+      </c>
+      <c r="C368" s="3">
         <v>31.438327558732681</v>
       </c>
     </row>
-    <row r="369" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A369" s="1">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A369" s="4">
         <v>368</v>
       </c>
-      <c r="B369">
+      <c r="B369" s="2">
+        <f>DATE(2017,8,1)</f>
+        <v>42948</v>
+      </c>
+      <c r="C369" s="3">
         <v>8.6960982942039209</v>
       </c>
     </row>
-    <row r="370" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A370" s="1">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A370" s="4">
         <v>369</v>
       </c>
-      <c r="B370">
+      <c r="B370" s="2">
+        <f>DATE(2017,9,1)</f>
+        <v>42979</v>
+      </c>
+      <c r="C370" s="3">
         <v>6.8061828590377331</v>
       </c>
     </row>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="1">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A371" s="4">
         <v>370</v>
       </c>
-      <c r="B371">
+      <c r="B371" s="2">
+        <f>DATE(2017,10,1)</f>
+        <v>43009</v>
+      </c>
+      <c r="C371" s="3">
         <v>15.494992496448839</v>
       </c>
     </row>
-    <row r="372" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A372" s="1">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A372" s="4">
         <v>371</v>
       </c>
-      <c r="B372">
+      <c r="B372" s="2">
+        <f>DATE(2017,11,1)</f>
+        <v>43040</v>
+      </c>
+      <c r="C372" s="3">
         <v>4.1922835131037459</v>
       </c>
     </row>
-    <row r="373" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A373" s="1">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A373" s="4">
         <v>372</v>
       </c>
-      <c r="B373">
+      <c r="B373" s="2">
+        <f>DATE(2017,12,1)</f>
+        <v>43070</v>
+      </c>
+      <c r="C373" s="3">
         <v>-37.435718773740632</v>
       </c>
     </row>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="1">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A374" s="4">
         <v>373</v>
       </c>
-      <c r="B374">
+      <c r="B374" s="2">
+        <f>DATE(2018,1,1)</f>
+        <v>43101</v>
+      </c>
+      <c r="C374" s="3">
         <v>-36.57193647689104</v>
       </c>
     </row>
-    <row r="375" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A375" s="1">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A375" s="4">
         <v>374</v>
       </c>
-      <c r="B375">
+      <c r="B375" s="2">
+        <f>DATE(2018,2,1)</f>
+        <v>43132</v>
+      </c>
+      <c r="C375" s="3">
         <v>-44.688546359645272</v>
       </c>
     </row>
-    <row r="376" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A376" s="1">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A376" s="4">
         <v>375</v>
       </c>
-      <c r="B376">
+      <c r="B376" s="2">
+        <f>DATE(2018,3,1)</f>
+        <v>43160</v>
+      </c>
+      <c r="C376" s="3">
         <v>-33.414720667094571</v>
       </c>
     </row>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="1">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A377" s="4">
         <v>376</v>
       </c>
-      <c r="B377">
+      <c r="B377" s="2">
+        <f>DATE(2018,4,1)</f>
+        <v>43191</v>
+      </c>
+      <c r="C377" s="3">
         <v>-34.669335890827433</v>
       </c>
     </row>
-    <row r="378" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A378" s="1">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A378" s="4">
         <v>377</v>
       </c>
-      <c r="B378">
+      <c r="B378" s="2">
+        <f>DATE(2018,5,1)</f>
+        <v>43221</v>
+      </c>
+      <c r="C378" s="3">
         <v>-45.514074472995219</v>
       </c>
     </row>
-    <row r="379" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A379" s="1">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A379" s="4">
         <v>378</v>
       </c>
-      <c r="B379">
+      <c r="B379" s="2">
+        <f>DATE(2018,6,1)</f>
+        <v>43252</v>
+      </c>
+      <c r="C379" s="3">
         <v>-66.559897780155666</v>
       </c>
     </row>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="1">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A380" s="4">
         <v>379</v>
       </c>
-      <c r="B380">
+      <c r="B380" s="2">
+        <f>DATE(2018,7,1)</f>
+        <v>43282</v>
+      </c>
+      <c r="C380" s="3">
         <v>-41.807940016975579</v>
       </c>
     </row>
-    <row r="381" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A381" s="1">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A381" s="4">
         <v>380</v>
       </c>
-      <c r="B381">
+      <c r="B381" s="2">
+        <f>DATE(2018,8,1)</f>
+        <v>43313</v>
+      </c>
+      <c r="C381" s="3">
         <v>184.6466207895497</v>
       </c>
     </row>
-    <row r="382" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A382" s="1">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A382" s="4">
         <v>381</v>
       </c>
-      <c r="B382">
+      <c r="B382" s="2">
+        <f>DATE(2018,9,1)</f>
+        <v>43344</v>
+      </c>
+      <c r="C382" s="3">
         <v>32.868421848470177</v>
       </c>
     </row>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="1">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A383" s="4">
         <v>382</v>
       </c>
-      <c r="B383">
+      <c r="B383" s="2">
+        <f>DATE(2018,10,1)</f>
+        <v>43374</v>
+      </c>
+      <c r="C383" s="3">
         <v>15.60493138373972</v>
       </c>
     </row>
-    <row r="384" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A384" s="1">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A384" s="4">
         <v>383</v>
       </c>
-      <c r="B384">
+      <c r="B384" s="2">
+        <f>DATE(2018,11,1)</f>
+        <v>43405</v>
+      </c>
+      <c r="C384" s="3">
         <v>-0.72278741749789788</v>
       </c>
     </row>
-    <row r="385" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A385" s="1">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A385" s="4">
         <v>384</v>
       </c>
-      <c r="B385">
+      <c r="B385" s="2">
+        <f>DATE(2018,12,1)</f>
+        <v>43435</v>
+      </c>
+      <c r="C385" s="3">
         <v>20.889995944284639</v>
       </c>
     </row>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="1">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A386" s="4">
         <v>385</v>
       </c>
-      <c r="B386">
+      <c r="B386" s="2">
+        <f>DATE(2019,1,1)</f>
+        <v>43466</v>
+      </c>
+      <c r="C386" s="3">
         <v>-13.53174096243032</v>
       </c>
     </row>
-    <row r="387" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A387" s="1">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A387" s="4">
         <v>386</v>
       </c>
-      <c r="B387">
+      <c r="B387" s="2">
+        <f>DATE(2019,2,1)</f>
+        <v>43497</v>
+      </c>
+      <c r="C387" s="3">
         <v>-57.227646456611858</v>
       </c>
     </row>
-    <row r="388" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A388" s="1">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A388" s="4">
         <v>387</v>
       </c>
-      <c r="B388">
+      <c r="B388" s="2">
+        <f>DATE(2019,3,1)</f>
+        <v>43525</v>
+      </c>
+      <c r="C388" s="3">
         <v>125.0320475115545</v>
       </c>
     </row>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="1">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A389" s="4">
         <v>388</v>
       </c>
-      <c r="B389">
+      <c r="B389" s="2">
+        <f>DATE(2019,4,1)</f>
+        <v>43556</v>
+      </c>
+      <c r="C389" s="3">
         <v>-17.469118707590919</v>
       </c>
     </row>
-    <row r="390" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A390" s="1">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A390" s="4">
         <v>389</v>
       </c>
-      <c r="B390">
+      <c r="B390" s="2">
+        <f>DATE(2019,5,1)</f>
+        <v>43586</v>
+      </c>
+      <c r="C390" s="3">
         <v>67.488815294416469</v>
       </c>
     </row>
-    <row r="391" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A391" s="1">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A391" s="4">
         <v>390</v>
       </c>
-      <c r="B391">
+      <c r="B391" s="2">
+        <f>DATE(2019,6,1)</f>
+        <v>43617</v>
+      </c>
+      <c r="C391" s="3">
         <v>-19.619858579201491</v>
       </c>
     </row>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="1">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A392" s="4">
         <v>391</v>
       </c>
-      <c r="B392">
+      <c r="B392" s="2">
+        <f>DATE(2019,7,1)</f>
+        <v>43647</v>
+      </c>
+      <c r="C392" s="3">
         <v>53.955909669769269</v>
       </c>
     </row>
-    <row r="393" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A393" s="1">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A393" s="4">
         <v>392</v>
       </c>
-      <c r="B393">
+      <c r="B393" s="2">
+        <f>DATE(2019,8,1)</f>
+        <v>43678</v>
+      </c>
+      <c r="C393" s="3">
         <v>-0.63979189162773764</v>
       </c>
     </row>
-    <row r="394" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A394" s="1">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A394" s="4">
         <v>393</v>
       </c>
-      <c r="B394">
+      <c r="B394" s="2">
+        <f>DATE(2019,9,1)</f>
+        <v>43709</v>
+      </c>
+      <c r="C394" s="3">
         <v>82.562352788251857</v>
       </c>
     </row>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="1">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A395" s="4">
         <v>394</v>
       </c>
-      <c r="B395">
+      <c r="B395" s="2">
+        <f>DATE(2019,10,1)</f>
+        <v>43739</v>
+      </c>
+      <c r="C395" s="3">
         <v>-21.43498007244818</v>
       </c>
     </row>
-    <row r="396" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A396" s="1">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A396" s="4">
         <v>395</v>
       </c>
-      <c r="B396">
+      <c r="B396" s="2">
+        <f>DATE(2019,11,1)</f>
+        <v>43770</v>
+      </c>
+      <c r="C396" s="3">
         <v>-11.30316202243603</v>
       </c>
     </row>
-    <row r="397" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A397" s="1">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A397" s="4">
         <v>396</v>
       </c>
-      <c r="B397">
+      <c r="B397" s="2">
+        <f>DATE(2019,12,1)</f>
+        <v>43800</v>
+      </c>
+      <c r="C397" s="3">
         <v>-10.07248783218404</v>
       </c>
     </row>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="1">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A398" s="4">
         <v>397</v>
       </c>
-      <c r="B398">
+      <c r="B398" s="2">
+        <f>DATE(2020,1,1)</f>
+        <v>43831</v>
+      </c>
+      <c r="C398" s="3">
         <v>60.213609776506928</v>
       </c>
     </row>
-    <row r="399" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A399" s="1">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A399" s="4">
         <v>398</v>
       </c>
-      <c r="B399">
+      <c r="B399" s="2">
+        <f>DATE(2020,2,1)</f>
+        <v>43862</v>
+      </c>
+      <c r="C399" s="3">
         <v>57.540247387949478</v>
       </c>
     </row>
-    <row r="400" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A400" s="1">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A400" s="4">
         <v>399</v>
       </c>
-      <c r="B400">
+      <c r="B400" s="2">
+        <f>DATE(2020,3,1)</f>
+        <v>43891</v>
+      </c>
+      <c r="C400" s="3">
         <v>36.18615732244433</v>
       </c>
     </row>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="1">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A401" s="4">
         <v>400</v>
       </c>
-      <c r="B401">
+      <c r="B401" s="2">
+        <f>DATE(2020,4,1)</f>
+        <v>43922</v>
+      </c>
+      <c r="C401" s="3">
         <v>-20.898119658902829</v>
       </c>
     </row>
-    <row r="402" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A402" s="1">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A402" s="4">
         <v>401</v>
       </c>
-      <c r="B402">
+      <c r="B402" s="2">
+        <f>DATE(2020,5,1)</f>
+        <v>43952</v>
+      </c>
+      <c r="C402" s="3">
         <v>42.112628812419977</v>
       </c>
     </row>
-    <row r="403" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A403" s="1">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A403" s="4">
         <v>402</v>
       </c>
-      <c r="B403">
+      <c r="B403" s="2">
+        <f>DATE(2020,6,1)</f>
+        <v>43983</v>
+      </c>
+      <c r="C403" s="3">
         <v>30.200894365898879</v>
       </c>
     </row>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="1">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A404" s="4">
         <v>403</v>
       </c>
-      <c r="B404">
+      <c r="B404" s="2">
+        <f>DATE(2020,7,1)</f>
+        <v>44013</v>
+      </c>
+      <c r="C404" s="3">
         <v>27.75217212544214</v>
       </c>
     </row>
-    <row r="405" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A405" s="1">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A405" s="4">
         <v>404</v>
       </c>
-      <c r="B405">
+      <c r="B405" s="2">
+        <f>DATE(2020,8,1)</f>
+        <v>44044</v>
+      </c>
+      <c r="C405" s="3">
         <v>57.054738998377267</v>
       </c>
     </row>
-    <row r="406" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A406" s="1">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A406" s="4">
         <v>405</v>
       </c>
-      <c r="B406">
+      <c r="B406" s="2">
+        <f>DATE(2020,9,1)</f>
+        <v>44075</v>
+      </c>
+      <c r="C406" s="3">
         <v>42.242218493674159</v>
       </c>
     </row>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="1">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A407" s="4">
         <v>406</v>
       </c>
-      <c r="B407">
+      <c r="B407" s="2">
+        <f>DATE(2020,10,1)</f>
+        <v>44105</v>
+      </c>
+      <c r="C407" s="3">
         <v>33.108956394394973</v>
       </c>
     </row>
-    <row r="408" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A408" s="1">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A408" s="4">
         <v>407</v>
       </c>
-      <c r="B408">
+      <c r="B408" s="2">
+        <f>DATE(2020,11,1)</f>
+        <v>44136</v>
+      </c>
+      <c r="C408" s="3">
         <v>41.482162488307267</v>
       </c>
     </row>
-    <row r="409" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A409" s="1">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A409" s="4">
         <v>408</v>
       </c>
-      <c r="B409">
+      <c r="B409" s="2">
+        <f>DATE(2020,12,1)</f>
+        <v>44166</v>
+      </c>
+      <c r="C409" s="3">
         <v>-5.2409536626351638</v>
       </c>
     </row>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="1">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A410" s="4">
         <v>409</v>
       </c>
-      <c r="B410">
+      <c r="B410" s="2">
+        <f>DATE(2021,1,1)</f>
+        <v>44197</v>
+      </c>
+      <c r="C410" s="3">
         <v>27.261594989926831</v>
       </c>
     </row>
-    <row r="411" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A411" s="1">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A411" s="4">
         <v>410</v>
       </c>
-      <c r="B411">
+      <c r="B411" s="2">
+        <f>DATE(2021,2,1)</f>
+        <v>44228</v>
+      </c>
+      <c r="C411" s="3">
         <v>56.138927247625531</v>
       </c>
     </row>
-    <row r="412" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A412" s="1">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A412" s="4">
         <v>411</v>
       </c>
-      <c r="B412">
+      <c r="B412" s="2">
+        <f>DATE(2021,3,1)</f>
+        <v>44256</v>
+      </c>
+      <c r="C412" s="3">
         <v>30.11472350417705</v>
       </c>
     </row>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="1">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A413" s="4">
         <v>412</v>
       </c>
-      <c r="B413">
+      <c r="B413" s="2">
+        <f>DATE(2021,4,1)</f>
+        <v>44287</v>
+      </c>
+      <c r="C413" s="3">
         <v>-52.28883569267478</v>
       </c>
     </row>
-    <row r="414" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A414" s="1">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A414" s="4">
         <v>413</v>
       </c>
-      <c r="B414">
+      <c r="B414" s="2">
+        <f>DATE(2021,5,1)</f>
+        <v>44317</v>
+      </c>
+      <c r="C414" s="3">
         <v>-37.858644298082602</v>
       </c>
     </row>
-    <row r="415" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A415" s="1">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A415" s="4">
         <v>414</v>
       </c>
-      <c r="B415">
+      <c r="B415" s="2">
+        <f>DATE(2021,6,1)</f>
+        <v>44348</v>
+      </c>
+      <c r="C415" s="3">
         <v>-26.315747487694068</v>
       </c>
     </row>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="1">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A416" s="4">
         <v>415</v>
       </c>
-      <c r="B416">
+      <c r="B416" s="2">
+        <f>DATE(2021,7,1)</f>
+        <v>44378</v>
+      </c>
+      <c r="C416" s="3">
         <v>9.8504995292526019</v>
       </c>
     </row>
-    <row r="417" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A417" s="1">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A417" s="4">
         <v>416</v>
       </c>
-      <c r="B417">
+      <c r="B417" s="2">
+        <f>DATE(2021,8,1)</f>
+        <v>44409</v>
+      </c>
+      <c r="C417" s="3">
         <v>12.55845526739512</v>
       </c>
     </row>
-    <row r="418" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A418" s="1">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A418" s="4">
         <v>417</v>
       </c>
-      <c r="B418">
+      <c r="B418" s="2">
+        <f>DATE(2021,9,1)</f>
+        <v>44440</v>
+      </c>
+      <c r="C418" s="3">
         <v>6.0159257422166661</v>
       </c>
     </row>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="1">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A419" s="4">
         <v>418</v>
       </c>
-      <c r="B419">
+      <c r="B419" s="2">
+        <f>DATE(2021,10,1)</f>
+        <v>44470</v>
+      </c>
+      <c r="C419" s="3">
         <v>-2.6546855761352499</v>
       </c>
     </row>
-    <row r="420" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A420" s="1">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A420" s="4">
         <v>419</v>
       </c>
-      <c r="B420">
+      <c r="B420" s="2">
+        <f>DATE(2021,11,1)</f>
+        <v>44501</v>
+      </c>
+      <c r="C420" s="3">
         <v>12.02429643332772</v>
       </c>
     </row>
